--- a/datamining/final_data/tfidf1964_nltk.xlsx
+++ b/datamining/final_data/tfidf1964_nltk.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:FQ49"/>
+  <dimension ref="A1:EV49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,845 +452,740 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>and</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>children</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>creatively</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>culturally-disadvantaged</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>economically</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>gifted</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>identifying</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>the</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>a</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>of</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>report</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>self-concept</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>very</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>areas</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>distressed</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>for</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>in</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>search</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>talent</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>additional</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>costs</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>educating</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>elementary</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>per</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>pupil</t>
         </is>
       </c>
-      <c r="AD1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>gifts</t>
         </is>
       </c>
-      <c r="AE1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>opening</t>
         </is>
       </c>
-      <c r="AF1" s="1" t="inlineStr">
-        <is>
-          <t>as</t>
-        </is>
-      </c>
-      <c r="AG1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>classroom</t>
         </is>
       </c>
-      <c r="AH1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>experiences</t>
         </is>
       </c>
-      <c r="AI1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>gifted-child</t>
         </is>
       </c>
-      <c r="AJ1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>insights</t>
         </is>
       </c>
-      <c r="AK1" s="1" t="inlineStr">
-        <is>
-          <t>my</t>
-        </is>
-      </c>
-      <c r="AL1" s="1" t="inlineStr">
-        <is>
-          <t>own</t>
-        </is>
-      </c>
-      <c r="AM1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>personal</t>
         </is>
       </c>
-      <c r="AN1" s="1" t="inlineStr">
+      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>shares</t>
         </is>
       </c>
-      <c r="AO1" s="1" t="inlineStr">
+      <c r="AE1" s="1" t="inlineStr">
         <is>
           <t>teacher</t>
         </is>
       </c>
-      <c r="AP1" s="1" t="inlineStr">
+      <c r="AF1" s="1" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="AQ1" s="1" t="inlineStr">
+      <c r="AG1" s="1" t="inlineStr">
         <is>
           <t>able</t>
         </is>
       </c>
-      <c r="AR1" s="1" t="inlineStr">
+      <c r="AH1" s="1" t="inlineStr">
         <is>
           <t>parents</t>
         </is>
       </c>
-      <c r="AS1" s="1" t="inlineStr">
+      <c r="AI1" s="1" t="inlineStr">
         <is>
           <t>suggestions</t>
         </is>
       </c>
-      <c r="AT1" s="1" t="inlineStr">
+      <c r="AJ1" s="1" t="inlineStr">
         <is>
           <t>book</t>
         </is>
       </c>
-      <c r="AU1" s="1" t="inlineStr">
+      <c r="AK1" s="1" t="inlineStr">
         <is>
           <t>briefing</t>
         </is>
       </c>
-      <c r="AV1" s="1" t="inlineStr">
+      <c r="AL1" s="1" t="inlineStr">
         <is>
           <t>journals</t>
         </is>
       </c>
-      <c r="AW1" s="1" t="inlineStr">
+      <c r="AM1" s="1" t="inlineStr">
         <is>
           <t>reviews</t>
         </is>
       </c>
-      <c r="AX1" s="1" t="inlineStr">
+      <c r="AN1" s="1" t="inlineStr">
         <is>
           <t>contribute</t>
         </is>
       </c>
-      <c r="AY1" s="1" t="inlineStr">
-        <is>
-          <t>do</t>
-        </is>
-      </c>
-      <c r="AZ1" s="1" t="inlineStr">
+      <c r="AO1" s="1" t="inlineStr">
         <is>
           <t>help</t>
         </is>
       </c>
-      <c r="BA1" s="1" t="inlineStr">
+      <c r="AP1" s="1" t="inlineStr">
         <is>
           <t>maximum</t>
         </is>
       </c>
-      <c r="BB1" s="1" t="inlineStr">
+      <c r="AQ1" s="1" t="inlineStr">
         <is>
           <t>potential</t>
         </is>
       </c>
-      <c r="BC1" s="1" t="inlineStr">
+      <c r="AR1" s="1" t="inlineStr">
         <is>
           <t>schools</t>
         </is>
       </c>
-      <c r="BD1" s="1" t="inlineStr">
-        <is>
-          <t>their</t>
-        </is>
-      </c>
-      <c r="BE1" s="1" t="inlineStr">
-        <is>
-          <t>to</t>
-        </is>
-      </c>
-      <c r="BF1" s="1" t="inlineStr">
+      <c r="AS1" s="1" t="inlineStr">
         <is>
           <t>models</t>
         </is>
       </c>
-      <c r="BG1" s="1" t="inlineStr">
+      <c r="AT1" s="1" t="inlineStr">
         <is>
           <t>persons</t>
         </is>
       </c>
-      <c r="BH1" s="1" t="inlineStr">
+      <c r="AU1" s="1" t="inlineStr">
         <is>
           <t>re-creation</t>
         </is>
       </c>
-      <c r="BI1" s="1" t="inlineStr">
+      <c r="AV1" s="1" t="inlineStr">
         <is>
           <t>realistic</t>
         </is>
       </c>
-      <c r="BJ1" s="1" t="inlineStr">
+      <c r="AW1" s="1" t="inlineStr">
         <is>
           <t>become</t>
         </is>
       </c>
-      <c r="BK1" s="1" t="inlineStr">
+      <c r="AX1" s="1" t="inlineStr">
         <is>
           <t>guidance</t>
         </is>
       </c>
-      <c r="BL1" s="1" t="inlineStr">
+      <c r="AY1" s="1" t="inlineStr">
         <is>
           <t>may</t>
         </is>
       </c>
-      <c r="BM1" s="1" t="inlineStr">
+      <c r="AZ1" s="1" t="inlineStr">
         <is>
           <t>residual</t>
         </is>
       </c>
-      <c r="BN1" s="1" t="inlineStr">
+      <c r="BA1" s="1" t="inlineStr">
         <is>
           <t>administrators</t>
         </is>
       </c>
-      <c r="BO1" s="1" t="inlineStr">
+      <c r="BB1" s="1" t="inlineStr">
         <is>
           <t>education</t>
         </is>
       </c>
-      <c r="BP1" s="1" t="inlineStr">
+      <c r="BC1" s="1" t="inlineStr">
         <is>
           <t>gifted-children</t>
         </is>
       </c>
-      <c r="BQ1" s="1" t="inlineStr">
-        <is>
-          <t>on</t>
-        </is>
-      </c>
-      <c r="BR1" s="1" t="inlineStr">
+      <c r="BD1" s="1" t="inlineStr">
         <is>
           <t>opinions</t>
         </is>
       </c>
-      <c r="BS1" s="1" t="inlineStr">
+      <c r="BE1" s="1" t="inlineStr">
         <is>
           <t>qualifications</t>
         </is>
       </c>
-      <c r="BT1" s="1" t="inlineStr">
+      <c r="BF1" s="1" t="inlineStr">
         <is>
           <t>better</t>
         </is>
       </c>
-      <c r="BU1" s="1" t="inlineStr">
+      <c r="BG1" s="1" t="inlineStr">
         <is>
           <t>brains</t>
         </is>
       </c>
-      <c r="BV1" s="1" t="inlineStr">
+      <c r="BH1" s="1" t="inlineStr">
         <is>
           <t>current</t>
         </is>
       </c>
-      <c r="BW1" s="1" t="inlineStr">
+      <c r="BI1" s="1" t="inlineStr">
         <is>
           <t>deeper</t>
         </is>
       </c>
-      <c r="BX1" s="1" t="inlineStr">
+      <c r="BJ1" s="1" t="inlineStr">
         <is>
           <t>developments</t>
         </is>
       </c>
-      <c r="BY1" s="1" t="inlineStr">
+      <c r="BK1" s="1" t="inlineStr">
         <is>
           <t>high-school</t>
         </is>
       </c>
-      <c r="BZ1" s="1" t="inlineStr">
+      <c r="BL1" s="1" t="inlineStr">
         <is>
           <t>involvment</t>
         </is>
       </c>
-      <c r="CA1" s="1" t="inlineStr">
+      <c r="BM1" s="1" t="inlineStr">
         <is>
           <t>new-york</t>
         </is>
       </c>
-      <c r="CB1" s="1" t="inlineStr">
-        <is>
-          <t>some</t>
-        </is>
-      </c>
-      <c r="CC1" s="1" t="inlineStr">
+      <c r="BN1" s="1" t="inlineStr">
         <is>
           <t>state</t>
         </is>
       </c>
-      <c r="CD1" s="1" t="inlineStr">
+      <c r="BO1" s="1" t="inlineStr">
         <is>
           <t>students</t>
         </is>
       </c>
-      <c r="CE1" s="1" t="inlineStr">
+      <c r="BP1" s="1" t="inlineStr">
         <is>
           <t>problems</t>
         </is>
       </c>
-      <c r="CF1" s="1" t="inlineStr">
+      <c r="BQ1" s="1" t="inlineStr">
         <is>
           <t>failures</t>
         </is>
       </c>
-      <c r="CG1" s="1" t="inlineStr">
+      <c r="BR1" s="1" t="inlineStr">
         <is>
           <t>programs</t>
         </is>
       </c>
-      <c r="CH1" s="1" t="inlineStr">
+      <c r="BS1" s="1" t="inlineStr">
         <is>
           <t>school</t>
         </is>
       </c>
-      <c r="CI1" s="1" t="inlineStr">
+      <c r="BT1" s="1" t="inlineStr">
         <is>
           <t>successes</t>
         </is>
       </c>
-      <c r="CJ1" s="1" t="inlineStr">
-        <is>
-          <t>an</t>
-        </is>
-      </c>
-      <c r="CK1" s="1" t="inlineStr">
-        <is>
-          <t>are</t>
-        </is>
-      </c>
-      <c r="CL1" s="1" t="inlineStr">
+      <c r="BU1" s="1" t="inlineStr">
         <is>
           <t>citations</t>
         </is>
       </c>
-      <c r="CM1" s="1" t="inlineStr">
+      <c r="BV1" s="1" t="inlineStr">
         <is>
           <t>invitation</t>
         </is>
       </c>
-      <c r="CN1" s="1" t="inlineStr">
+      <c r="BW1" s="1" t="inlineStr">
         <is>
           <t>invited</t>
         </is>
       </c>
-      <c r="CO1" s="1" t="inlineStr">
+      <c r="BX1" s="1" t="inlineStr">
         <is>
           <t>merit</t>
         </is>
       </c>
-      <c r="CP1" s="1" t="inlineStr">
+      <c r="BY1" s="1" t="inlineStr">
         <is>
           <t>nominations</t>
         </is>
       </c>
-      <c r="CQ1" s="1" t="inlineStr">
+      <c r="BZ1" s="1" t="inlineStr">
         <is>
           <t>readers</t>
         </is>
       </c>
-      <c r="CR1" s="1" t="inlineStr">
+      <c r="CA1" s="1" t="inlineStr">
         <is>
           <t>submit</t>
         </is>
       </c>
-      <c r="CS1" s="1" t="inlineStr">
+      <c r="CB1" s="1" t="inlineStr">
         <is>
           <t>teaching</t>
         </is>
       </c>
-      <c r="CT1" s="1" t="inlineStr">
+      <c r="CC1" s="1" t="inlineStr">
         <is>
           <t>'s</t>
         </is>
       </c>
-      <c r="CU1" s="1" t="inlineStr">
+      <c r="CD1" s="1" t="inlineStr">
         <is>
           <t>page</t>
         </is>
       </c>
-      <c r="CV1" s="1" t="inlineStr">
+      <c r="CE1" s="1" t="inlineStr">
         <is>
           <t>parent</t>
         </is>
       </c>
-      <c r="CW1" s="1" t="inlineStr">
+      <c r="CF1" s="1" t="inlineStr">
         <is>
           <t>teachers</t>
         </is>
       </c>
-      <c r="CX1" s="1" t="inlineStr">
+      <c r="CG1" s="1" t="inlineStr">
         <is>
           <t>learning</t>
         </is>
       </c>
-      <c r="CY1" s="1" t="inlineStr">
+      <c r="CH1" s="1" t="inlineStr">
         <is>
           <t>self-initiated</t>
         </is>
       </c>
-      <c r="CZ1" s="1" t="inlineStr">
+      <c r="CI1" s="1" t="inlineStr">
         <is>
           <t>summer</t>
         </is>
       </c>
-      <c r="DA1" s="1" t="inlineStr">
+      <c r="CJ1" s="1" t="inlineStr">
         <is>
           <t>time</t>
         </is>
       </c>
-      <c r="DB1" s="1" t="inlineStr">
+      <c r="CK1" s="1" t="inlineStr">
         <is>
           <t>artistic</t>
         </is>
       </c>
-      <c r="DC1" s="1" t="inlineStr">
+      <c r="CL1" s="1" t="inlineStr">
         <is>
           <t>child</t>
         </is>
       </c>
-      <c r="DD1" s="1" t="inlineStr">
-        <is>
-          <t>its</t>
-        </is>
-      </c>
-      <c r="DE1" s="1" t="inlineStr">
+      <c r="CM1" s="1" t="inlineStr">
         <is>
           <t>tribulations</t>
         </is>
       </c>
-      <c r="DF1" s="1" t="inlineStr">
+      <c r="CN1" s="1" t="inlineStr">
         <is>
           <t>art</t>
         </is>
       </c>
-      <c r="DG1" s="1" t="inlineStr">
+      <c r="CO1" s="1" t="inlineStr">
         <is>
           <t>fulfillment</t>
         </is>
       </c>
-      <c r="DH1" s="1" t="inlineStr">
+      <c r="CP1" s="1" t="inlineStr">
         <is>
           <t>artistically</t>
         </is>
       </c>
-      <c r="DI1" s="1" t="inlineStr">
+      <c r="CQ1" s="1" t="inlineStr">
         <is>
           <t>arts</t>
         </is>
       </c>
-      <c r="DJ1" s="1" t="inlineStr">
+      <c r="CR1" s="1" t="inlineStr">
         <is>
           <t>balance</t>
         </is>
       </c>
-      <c r="DK1" s="1" t="inlineStr">
+      <c r="CS1" s="1" t="inlineStr">
         <is>
           <t>demand</t>
         </is>
       </c>
-      <c r="DL1" s="1" t="inlineStr">
+      <c r="CT1" s="1" t="inlineStr">
         <is>
           <t>science</t>
         </is>
       </c>
-      <c r="DM1" s="1" t="inlineStr">
-        <is>
-          <t>with</t>
-        </is>
-      </c>
-      <c r="DN1" s="1" t="inlineStr">
+      <c r="CU1" s="1" t="inlineStr">
         <is>
           <t>human-values</t>
         </is>
       </c>
-      <c r="DO1" s="1" t="inlineStr">
+      <c r="CV1" s="1" t="inlineStr">
         <is>
           <t>imagination</t>
         </is>
       </c>
-      <c r="DP1" s="1" t="inlineStr">
+      <c r="CW1" s="1" t="inlineStr">
         <is>
           <t>intrinsic</t>
         </is>
       </c>
-      <c r="DQ1" s="1" t="inlineStr">
+      <c r="CX1" s="1" t="inlineStr">
         <is>
           <t>matter</t>
         </is>
       </c>
-      <c r="DR1" s="1" t="inlineStr">
+      <c r="CY1" s="1" t="inlineStr">
         <is>
           <t>survival</t>
         </is>
       </c>
-      <c r="DS1" s="1" t="inlineStr">
+      <c r="CZ1" s="1" t="inlineStr">
         <is>
           <t>leg</t>
         </is>
       </c>
-      <c r="DT1" s="1" t="inlineStr">
+      <c r="DA1" s="1" t="inlineStr">
         <is>
           <t>picasso</t>
         </is>
       </c>
-      <c r="DU1" s="1" t="inlineStr">
+      <c r="DB1" s="1" t="inlineStr">
         <is>
           <t>pulls</t>
         </is>
       </c>
-      <c r="DV1" s="1" t="inlineStr">
+      <c r="DC1" s="1" t="inlineStr">
         <is>
           <t>gowan</t>
         </is>
       </c>
-      <c r="DW1" s="1" t="inlineStr">
+      <c r="DD1" s="1" t="inlineStr">
         <is>
           <t>underachiever</t>
         </is>
       </c>
-      <c r="DX1" s="1" t="inlineStr">
+      <c r="DE1" s="1" t="inlineStr">
         <is>
           <t>attacks</t>
         </is>
       </c>
-      <c r="DY1" s="1" t="inlineStr">
+      <c r="DF1" s="1" t="inlineStr">
         <is>
           <t>analysis</t>
         </is>
       </c>
-      <c r="DZ1" s="1" t="inlineStr">
+      <c r="DG1" s="1" t="inlineStr">
         <is>
           <t>grades</t>
         </is>
       </c>
-      <c r="EA1" s="1" t="inlineStr">
+      <c r="DH1" s="1" t="inlineStr">
         <is>
           <t>primary</t>
         </is>
       </c>
-      <c r="EB1" s="1" t="inlineStr">
+      <c r="DI1" s="1" t="inlineStr">
         <is>
           <t>academically</t>
         </is>
       </c>
-      <c r="EC1" s="1" t="inlineStr">
+      <c r="DJ1" s="1" t="inlineStr">
         <is>
           <t>disabilities</t>
         </is>
       </c>
-      <c r="ED1" s="1" t="inlineStr">
+      <c r="DK1" s="1" t="inlineStr">
         <is>
           <t>reading</t>
         </is>
       </c>
-      <c r="EE1" s="1" t="inlineStr">
+      <c r="DL1" s="1" t="inlineStr">
         <is>
           <t>talented</t>
         </is>
       </c>
-      <c r="EF1" s="1" t="inlineStr">
+      <c r="DM1" s="1" t="inlineStr">
         <is>
           <t>achievement</t>
         </is>
       </c>
-      <c r="EG1" s="1" t="inlineStr">
+      <c r="DN1" s="1" t="inlineStr">
         <is>
           <t>classes</t>
         </is>
       </c>
-      <c r="EH1" s="1" t="inlineStr">
+      <c r="DO1" s="1" t="inlineStr">
         <is>
           <t>elementary-school</t>
         </is>
       </c>
-      <c r="EI1" s="1" t="inlineStr">
+      <c r="DP1" s="1" t="inlineStr">
         <is>
           <t>evaluating</t>
         </is>
       </c>
-      <c r="EJ1" s="1" t="inlineStr">
+      <c r="DQ1" s="1" t="inlineStr">
         <is>
           <t>special</t>
         </is>
       </c>
-      <c r="EK1" s="1" t="inlineStr">
+      <c r="DR1" s="1" t="inlineStr">
         <is>
           <t>concerning</t>
         </is>
       </c>
-      <c r="EL1" s="1" t="inlineStr">
+      <c r="DS1" s="1" t="inlineStr">
         <is>
           <t>creative</t>
         </is>
       </c>
-      <c r="EM1" s="1" t="inlineStr">
+      <c r="DT1" s="1" t="inlineStr">
         <is>
           <t>evolution</t>
         </is>
       </c>
-      <c r="EN1" s="1" t="inlineStr">
+      <c r="DU1" s="1" t="inlineStr">
         <is>
           <t>process</t>
         </is>
       </c>
-      <c r="EO1" s="1" t="inlineStr">
+      <c r="DV1" s="1" t="inlineStr">
         <is>
           <t>theories</t>
         </is>
       </c>
-      <c r="EP1" s="1" t="inlineStr">
+      <c r="DW1" s="1" t="inlineStr">
         <is>
           <t>adjustment</t>
         </is>
       </c>
-      <c r="EQ1" s="1" t="inlineStr">
+      <c r="DX1" s="1" t="inlineStr">
         <is>
           <t>educational-attitudes</t>
         </is>
       </c>
-      <c r="ER1" s="1" t="inlineStr">
+      <c r="DY1" s="1" t="inlineStr">
         <is>
           <t>graduates</t>
         </is>
       </c>
-      <c r="ES1" s="1" t="inlineStr">
+      <c r="DZ1" s="1" t="inlineStr">
         <is>
           <t>high-ability</t>
         </is>
       </c>
-      <c r="ET1" s="1" t="inlineStr">
+      <c r="EA1" s="1" t="inlineStr">
         <is>
           <t>high-achieving</t>
         </is>
       </c>
-      <c r="EU1" s="1" t="inlineStr">
+      <c r="EB1" s="1" t="inlineStr">
         <is>
           <t>ohio</t>
         </is>
       </c>
-      <c r="EV1" s="1" t="inlineStr">
+      <c r="EC1" s="1" t="inlineStr">
         <is>
           <t>secondary-school</t>
         </is>
       </c>
-      <c r="EW1" s="1" t="inlineStr">
+      <c r="ED1" s="1" t="inlineStr">
         <is>
           <t>college</t>
         </is>
       </c>
-      <c r="EX1" s="1" t="inlineStr">
+      <c r="EE1" s="1" t="inlineStr">
         <is>
           <t>discussion</t>
         </is>
       </c>
-      <c r="EY1" s="1" t="inlineStr">
+      <c r="EF1" s="1" t="inlineStr">
         <is>
           <t>nagc</t>
         </is>
       </c>
-      <c r="EZ1" s="1" t="inlineStr">
+      <c r="EG1" s="1" t="inlineStr">
         <is>
           <t>survey</t>
         </is>
       </c>
-      <c r="FA1" s="1" t="inlineStr">
+      <c r="EH1" s="1" t="inlineStr">
         <is>
           <t>expressive</t>
         </is>
       </c>
-      <c r="FB1" s="1" t="inlineStr">
+      <c r="EI1" s="1" t="inlineStr">
         <is>
           <t>females</t>
         </is>
       </c>
-      <c r="FC1" s="1" t="inlineStr">
+      <c r="EJ1" s="1" t="inlineStr">
         <is>
           <t>modes</t>
         </is>
       </c>
-      <c r="FD1" s="1" t="inlineStr">
+      <c r="EK1" s="1" t="inlineStr">
         <is>
           <t>study</t>
         </is>
       </c>
-      <c r="FE1" s="1" t="inlineStr">
-        <is>
-          <t>by</t>
-        </is>
-      </c>
-      <c r="FF1" s="1" t="inlineStr">
+      <c r="EL1" s="1" t="inlineStr">
         <is>
           <t>community-action</t>
         </is>
       </c>
-      <c r="FG1" s="1" t="inlineStr">
+      <c r="EM1" s="1" t="inlineStr">
         <is>
           <t>group</t>
         </is>
       </c>
-      <c r="FH1" s="1" t="inlineStr">
+      <c r="EN1" s="1" t="inlineStr">
         <is>
           <t>ethnology</t>
         </is>
       </c>
-      <c r="FI1" s="1" t="inlineStr">
+      <c r="EO1" s="1" t="inlineStr">
         <is>
           <t>giftedness</t>
         </is>
       </c>
-      <c r="FJ1" s="1" t="inlineStr">
+      <c r="EP1" s="1" t="inlineStr">
         <is>
           <t>license</t>
         </is>
       </c>
-      <c r="FK1" s="1" t="inlineStr">
-        <is>
-          <t>or</t>
-        </is>
-      </c>
-      <c r="FL1" s="1" t="inlineStr">
+      <c r="EQ1" s="1" t="inlineStr">
         <is>
           <t>responsibility</t>
         </is>
       </c>
-      <c r="FM1" s="1" t="inlineStr">
+      <c r="ER1" s="1" t="inlineStr">
         <is>
           <t>plea</t>
         </is>
       </c>
-      <c r="FN1" s="1" t="inlineStr">
+      <c r="ES1" s="1" t="inlineStr">
         <is>
           <t>crow</t>
         </is>
       </c>
-      <c r="FO1" s="1" t="inlineStr">
+      <c r="ET1" s="1" t="inlineStr">
         <is>
           <t>ld</t>
         </is>
       </c>
-      <c r="FP1" s="1" t="inlineStr">
+      <c r="EU1" s="1" t="inlineStr">
         <is>
           <t>readings</t>
         </is>
       </c>
-      <c r="FQ1" s="1" t="inlineStr">
+      <c r="EV1" s="1" t="inlineStr">
         <is>
           <t>review</t>
         </is>
@@ -1307,31 +1202,31 @@
         <v>2292</v>
       </c>
       <c r="D2" t="n">
-        <v>0.39</v>
+        <v>0.4</v>
       </c>
       <c r="E2" t="n">
-        <v>0.25</v>
+        <v>0.31</v>
       </c>
       <c r="F2" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="G2" t="n">
-        <v>0.39</v>
+        <v>0.49</v>
       </c>
       <c r="H2" t="n">
-        <v>0.47</v>
+        <v>0.4</v>
       </c>
       <c r="I2" t="n">
-        <v>0.39</v>
+        <v>0.12</v>
       </c>
       <c r="J2" t="n">
-        <v>0.11</v>
+        <v>0.4</v>
       </c>
       <c r="K2" t="n">
-        <v>0.39</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -1751,69 +1646,6 @@
         <v>0</v>
       </c>
       <c r="EV2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EW2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EX2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EY2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EZ2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FA2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FB2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FC2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FD2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FE2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FF2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FG2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FH2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FI2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FJ2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FK2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FL2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FM2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FN2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FO2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FP2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FQ2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1843,31 +1675,31 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="J3" t="n">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="L3" t="n">
-        <v>0.1</v>
+        <v>0.7</v>
       </c>
       <c r="M3" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0.29</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0.53</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0.53</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.53</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -2272,69 +2104,6 @@
         <v>0</v>
       </c>
       <c r="EV3" t="n">
-        <v>0</v>
-      </c>
-      <c r="EW3" t="n">
-        <v>0</v>
-      </c>
-      <c r="EX3" t="n">
-        <v>0</v>
-      </c>
-      <c r="EY3" t="n">
-        <v>0</v>
-      </c>
-      <c r="EZ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="FA3" t="n">
-        <v>0</v>
-      </c>
-      <c r="FB3" t="n">
-        <v>0</v>
-      </c>
-      <c r="FC3" t="n">
-        <v>0</v>
-      </c>
-      <c r="FD3" t="n">
-        <v>0</v>
-      </c>
-      <c r="FE3" t="n">
-        <v>0</v>
-      </c>
-      <c r="FF3" t="n">
-        <v>0</v>
-      </c>
-      <c r="FG3" t="n">
-        <v>0</v>
-      </c>
-      <c r="FH3" t="n">
-        <v>0</v>
-      </c>
-      <c r="FI3" t="n">
-        <v>0</v>
-      </c>
-      <c r="FJ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="FK3" t="n">
-        <v>0</v>
-      </c>
-      <c r="FL3" t="n">
-        <v>0</v>
-      </c>
-      <c r="FM3" t="n">
-        <v>0</v>
-      </c>
-      <c r="FN3" t="n">
-        <v>0</v>
-      </c>
-      <c r="FO3" t="n">
-        <v>0</v>
-      </c>
-      <c r="FP3" t="n">
-        <v>0</v>
-      </c>
-      <c r="FQ3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2361,10 +2130,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>0.38</v>
       </c>
       <c r="I4" t="n">
-        <v>0.36</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -2376,37 +2145,37 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0.17</v>
+        <v>0.46</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>0.46</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>0.46</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>0.46</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0.44</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0.44</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0.16</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0.23</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0.44</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0.44</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -2793,69 +2562,6 @@
         <v>0</v>
       </c>
       <c r="EV4" t="n">
-        <v>0</v>
-      </c>
-      <c r="EW4" t="n">
-        <v>0</v>
-      </c>
-      <c r="EX4" t="n">
-        <v>0</v>
-      </c>
-      <c r="EY4" t="n">
-        <v>0</v>
-      </c>
-      <c r="EZ4" t="n">
-        <v>0</v>
-      </c>
-      <c r="FA4" t="n">
-        <v>0</v>
-      </c>
-      <c r="FB4" t="n">
-        <v>0</v>
-      </c>
-      <c r="FC4" t="n">
-        <v>0</v>
-      </c>
-      <c r="FD4" t="n">
-        <v>0</v>
-      </c>
-      <c r="FE4" t="n">
-        <v>0</v>
-      </c>
-      <c r="FF4" t="n">
-        <v>0</v>
-      </c>
-      <c r="FG4" t="n">
-        <v>0</v>
-      </c>
-      <c r="FH4" t="n">
-        <v>0</v>
-      </c>
-      <c r="FI4" t="n">
-        <v>0</v>
-      </c>
-      <c r="FJ4" t="n">
-        <v>0</v>
-      </c>
-      <c r="FK4" t="n">
-        <v>0</v>
-      </c>
-      <c r="FL4" t="n">
-        <v>0</v>
-      </c>
-      <c r="FM4" t="n">
-        <v>0</v>
-      </c>
-      <c r="FN4" t="n">
-        <v>0</v>
-      </c>
-      <c r="FO4" t="n">
-        <v>0</v>
-      </c>
-      <c r="FP4" t="n">
-        <v>0</v>
-      </c>
-      <c r="FQ4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2873,79 +2579,79 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>0.26</v>
       </c>
       <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="S5" t="n">
         <v>0.26</v>
       </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0</v>
-      </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>0.41</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>0.41</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>0.41</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0.41</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.41</v>
+        <v>0</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.26</v>
+        <v>0</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.41</v>
+        <v>0</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.41</v>
+        <v>0</v>
       </c>
       <c r="AC5" t="n">
-        <v>0.41</v>
+        <v>0</v>
       </c>
       <c r="AD5" t="n">
         <v>0</v>
@@ -3314,69 +3020,6 @@
         <v>0</v>
       </c>
       <c r="EV5" t="n">
-        <v>0</v>
-      </c>
-      <c r="EW5" t="n">
-        <v>0</v>
-      </c>
-      <c r="EX5" t="n">
-        <v>0</v>
-      </c>
-      <c r="EY5" t="n">
-        <v>0</v>
-      </c>
-      <c r="EZ5" t="n">
-        <v>0</v>
-      </c>
-      <c r="FA5" t="n">
-        <v>0</v>
-      </c>
-      <c r="FB5" t="n">
-        <v>0</v>
-      </c>
-      <c r="FC5" t="n">
-        <v>0</v>
-      </c>
-      <c r="FD5" t="n">
-        <v>0</v>
-      </c>
-      <c r="FE5" t="n">
-        <v>0</v>
-      </c>
-      <c r="FF5" t="n">
-        <v>0</v>
-      </c>
-      <c r="FG5" t="n">
-        <v>0</v>
-      </c>
-      <c r="FH5" t="n">
-        <v>0</v>
-      </c>
-      <c r="FI5" t="n">
-        <v>0</v>
-      </c>
-      <c r="FJ5" t="n">
-        <v>0</v>
-      </c>
-      <c r="FK5" t="n">
-        <v>0</v>
-      </c>
-      <c r="FL5" t="n">
-        <v>0</v>
-      </c>
-      <c r="FM5" t="n">
-        <v>0</v>
-      </c>
-      <c r="FN5" t="n">
-        <v>0</v>
-      </c>
-      <c r="FO5" t="n">
-        <v>0</v>
-      </c>
-      <c r="FP5" t="n">
-        <v>0</v>
-      </c>
-      <c r="FQ5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3415,7 +3058,7 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -3448,10 +3091,10 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>0.71</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>0.71</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -3469,10 +3112,10 @@
         <v>0</v>
       </c>
       <c r="AD6" t="n">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="AE6" t="n">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="AF6" t="n">
         <v>0</v>
@@ -3835,69 +3478,6 @@
         <v>0</v>
       </c>
       <c r="EV6" t="n">
-        <v>0</v>
-      </c>
-      <c r="EW6" t="n">
-        <v>0</v>
-      </c>
-      <c r="EX6" t="n">
-        <v>0</v>
-      </c>
-      <c r="EY6" t="n">
-        <v>0</v>
-      </c>
-      <c r="EZ6" t="n">
-        <v>0</v>
-      </c>
-      <c r="FA6" t="n">
-        <v>0</v>
-      </c>
-      <c r="FB6" t="n">
-        <v>0</v>
-      </c>
-      <c r="FC6" t="n">
-        <v>0</v>
-      </c>
-      <c r="FD6" t="n">
-        <v>0</v>
-      </c>
-      <c r="FE6" t="n">
-        <v>0</v>
-      </c>
-      <c r="FF6" t="n">
-        <v>0</v>
-      </c>
-      <c r="FG6" t="n">
-        <v>0</v>
-      </c>
-      <c r="FH6" t="n">
-        <v>0</v>
-      </c>
-      <c r="FI6" t="n">
-        <v>0</v>
-      </c>
-      <c r="FJ6" t="n">
-        <v>0</v>
-      </c>
-      <c r="FK6" t="n">
-        <v>0</v>
-      </c>
-      <c r="FL6" t="n">
-        <v>0</v>
-      </c>
-      <c r="FM6" t="n">
-        <v>0</v>
-      </c>
-      <c r="FN6" t="n">
-        <v>0</v>
-      </c>
-      <c r="FO6" t="n">
-        <v>0</v>
-      </c>
-      <c r="FP6" t="n">
-        <v>0</v>
-      </c>
-      <c r="FQ6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3939,7 +3519,7 @@
         <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>0.24</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
         <v>0</v>
@@ -3975,55 +3555,55 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>0.41</v>
       </c>
       <c r="Z7" t="n">
-        <v>0</v>
+        <v>0.41</v>
       </c>
       <c r="AA7" t="n">
-        <v>0</v>
+        <v>0.26</v>
       </c>
       <c r="AB7" t="n">
-        <v>0</v>
+        <v>0.41</v>
       </c>
       <c r="AC7" t="n">
-        <v>0</v>
+        <v>0.41</v>
       </c>
       <c r="AD7" t="n">
-        <v>0</v>
+        <v>0.41</v>
       </c>
       <c r="AE7" t="n">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AF7" t="n">
-        <v>0.32</v>
+        <v>0</v>
       </c>
       <c r="AG7" t="n">
-        <v>0.32</v>
+        <v>0</v>
       </c>
       <c r="AH7" t="n">
-        <v>0.32</v>
+        <v>0</v>
       </c>
       <c r="AI7" t="n">
-        <v>0.21</v>
+        <v>0</v>
       </c>
       <c r="AJ7" t="n">
-        <v>0.32</v>
+        <v>0</v>
       </c>
       <c r="AK7" t="n">
-        <v>0.32</v>
+        <v>0</v>
       </c>
       <c r="AL7" t="n">
-        <v>0.32</v>
+        <v>0</v>
       </c>
       <c r="AM7" t="n">
-        <v>0.32</v>
+        <v>0</v>
       </c>
       <c r="AN7" t="n">
-        <v>0.32</v>
+        <v>0</v>
       </c>
       <c r="AO7" t="n">
-        <v>0.26</v>
+        <v>0</v>
       </c>
       <c r="AP7" t="n">
         <v>0</v>
@@ -4356,69 +3936,6 @@
         <v>0</v>
       </c>
       <c r="EV7" t="n">
-        <v>0</v>
-      </c>
-      <c r="EW7" t="n">
-        <v>0</v>
-      </c>
-      <c r="EX7" t="n">
-        <v>0</v>
-      </c>
-      <c r="EY7" t="n">
-        <v>0</v>
-      </c>
-      <c r="EZ7" t="n">
-        <v>0</v>
-      </c>
-      <c r="FA7" t="n">
-        <v>0</v>
-      </c>
-      <c r="FB7" t="n">
-        <v>0</v>
-      </c>
-      <c r="FC7" t="n">
-        <v>0</v>
-      </c>
-      <c r="FD7" t="n">
-        <v>0</v>
-      </c>
-      <c r="FE7" t="n">
-        <v>0</v>
-      </c>
-      <c r="FF7" t="n">
-        <v>0</v>
-      </c>
-      <c r="FG7" t="n">
-        <v>0</v>
-      </c>
-      <c r="FH7" t="n">
-        <v>0</v>
-      </c>
-      <c r="FI7" t="n">
-        <v>0</v>
-      </c>
-      <c r="FJ7" t="n">
-        <v>0</v>
-      </c>
-      <c r="FK7" t="n">
-        <v>0</v>
-      </c>
-      <c r="FL7" t="n">
-        <v>0</v>
-      </c>
-      <c r="FM7" t="n">
-        <v>0</v>
-      </c>
-      <c r="FN7" t="n">
-        <v>0</v>
-      </c>
-      <c r="FO7" t="n">
-        <v>0</v>
-      </c>
-      <c r="FP7" t="n">
-        <v>0</v>
-      </c>
-      <c r="FQ7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4436,10 +3953,10 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="F8" t="n">
-        <v>0.32</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -4463,7 +3980,7 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
         <v>0</v>
@@ -4481,7 +3998,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0.18</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -4517,16 +4034,16 @@
         <v>0</v>
       </c>
       <c r="AF8" t="n">
-        <v>0</v>
+        <v>0.52</v>
       </c>
       <c r="AG8" t="n">
-        <v>0</v>
+        <v>0.42</v>
       </c>
       <c r="AH8" t="n">
-        <v>0</v>
+        <v>0.42</v>
       </c>
       <c r="AI8" t="n">
-        <v>0</v>
+        <v>0.52</v>
       </c>
       <c r="AJ8" t="n">
         <v>0</v>
@@ -4547,16 +4064,16 @@
         <v>0</v>
       </c>
       <c r="AP8" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AQ8" t="n">
-        <v>0.41</v>
+        <v>0</v>
       </c>
       <c r="AR8" t="n">
-        <v>0.41</v>
+        <v>0</v>
       </c>
       <c r="AS8" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AT8" t="n">
         <v>0</v>
@@ -4877,69 +4394,6 @@
         <v>0</v>
       </c>
       <c r="EV8" t="n">
-        <v>0</v>
-      </c>
-      <c r="EW8" t="n">
-        <v>0</v>
-      </c>
-      <c r="EX8" t="n">
-        <v>0</v>
-      </c>
-      <c r="EY8" t="n">
-        <v>0</v>
-      </c>
-      <c r="EZ8" t="n">
-        <v>0</v>
-      </c>
-      <c r="FA8" t="n">
-        <v>0</v>
-      </c>
-      <c r="FB8" t="n">
-        <v>0</v>
-      </c>
-      <c r="FC8" t="n">
-        <v>0</v>
-      </c>
-      <c r="FD8" t="n">
-        <v>0</v>
-      </c>
-      <c r="FE8" t="n">
-        <v>0</v>
-      </c>
-      <c r="FF8" t="n">
-        <v>0</v>
-      </c>
-      <c r="FG8" t="n">
-        <v>0</v>
-      </c>
-      <c r="FH8" t="n">
-        <v>0</v>
-      </c>
-      <c r="FI8" t="n">
-        <v>0</v>
-      </c>
-      <c r="FJ8" t="n">
-        <v>0</v>
-      </c>
-      <c r="FK8" t="n">
-        <v>0</v>
-      </c>
-      <c r="FL8" t="n">
-        <v>0</v>
-      </c>
-      <c r="FM8" t="n">
-        <v>0</v>
-      </c>
-      <c r="FN8" t="n">
-        <v>0</v>
-      </c>
-      <c r="FO8" t="n">
-        <v>0</v>
-      </c>
-      <c r="FP8" t="n">
-        <v>0</v>
-      </c>
-      <c r="FQ8" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5050,16 +4504,16 @@
         <v>0</v>
       </c>
       <c r="AJ9" t="n">
-        <v>0</v>
+        <v>0.49</v>
       </c>
       <c r="AK9" t="n">
-        <v>0</v>
+        <v>0.49</v>
       </c>
       <c r="AL9" t="n">
-        <v>0</v>
+        <v>0.49</v>
       </c>
       <c r="AM9" t="n">
-        <v>0</v>
+        <v>0.54</v>
       </c>
       <c r="AN9" t="n">
         <v>0</v>
@@ -5080,16 +4534,16 @@
         <v>0</v>
       </c>
       <c r="AT9" t="n">
-        <v>0.49</v>
+        <v>0</v>
       </c>
       <c r="AU9" t="n">
-        <v>0.49</v>
+        <v>0</v>
       </c>
       <c r="AV9" t="n">
-        <v>0.49</v>
+        <v>0</v>
       </c>
       <c r="AW9" t="n">
-        <v>0.54</v>
+        <v>0</v>
       </c>
       <c r="AX9" t="n">
         <v>0</v>
@@ -5398,69 +4852,6 @@
         <v>0</v>
       </c>
       <c r="EV9" t="n">
-        <v>0</v>
-      </c>
-      <c r="EW9" t="n">
-        <v>0</v>
-      </c>
-      <c r="EX9" t="n">
-        <v>0</v>
-      </c>
-      <c r="EY9" t="n">
-        <v>0</v>
-      </c>
-      <c r="EZ9" t="n">
-        <v>0</v>
-      </c>
-      <c r="FA9" t="n">
-        <v>0</v>
-      </c>
-      <c r="FB9" t="n">
-        <v>0</v>
-      </c>
-      <c r="FC9" t="n">
-        <v>0</v>
-      </c>
-      <c r="FD9" t="n">
-        <v>0</v>
-      </c>
-      <c r="FE9" t="n">
-        <v>0</v>
-      </c>
-      <c r="FF9" t="n">
-        <v>0</v>
-      </c>
-      <c r="FG9" t="n">
-        <v>0</v>
-      </c>
-      <c r="FH9" t="n">
-        <v>0</v>
-      </c>
-      <c r="FI9" t="n">
-        <v>0</v>
-      </c>
-      <c r="FJ9" t="n">
-        <v>0</v>
-      </c>
-      <c r="FK9" t="n">
-        <v>0</v>
-      </c>
-      <c r="FL9" t="n">
-        <v>0</v>
-      </c>
-      <c r="FM9" t="n">
-        <v>0</v>
-      </c>
-      <c r="FN9" t="n">
-        <v>0</v>
-      </c>
-      <c r="FO9" t="n">
-        <v>0</v>
-      </c>
-      <c r="FP9" t="n">
-        <v>0</v>
-      </c>
-      <c r="FQ9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5490,10 +4881,10 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="J10" t="n">
-        <v>0.09</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -5583,19 +4974,19 @@
         <v>0</v>
       </c>
       <c r="AN10" t="n">
-        <v>0</v>
+        <v>0.44</v>
       </c>
       <c r="AO10" t="n">
-        <v>0</v>
+        <v>0.44</v>
       </c>
       <c r="AP10" t="n">
-        <v>0</v>
+        <v>0.44</v>
       </c>
       <c r="AQ10" t="n">
-        <v>0</v>
+        <v>0.44</v>
       </c>
       <c r="AR10" t="n">
-        <v>0</v>
+        <v>0.44</v>
       </c>
       <c r="AS10" t="n">
         <v>0</v>
@@ -5613,28 +5004,28 @@
         <v>0</v>
       </c>
       <c r="AX10" t="n">
-        <v>0.36</v>
+        <v>0</v>
       </c>
       <c r="AY10" t="n">
-        <v>0.36</v>
+        <v>0</v>
       </c>
       <c r="AZ10" t="n">
-        <v>0.36</v>
+        <v>0</v>
       </c>
       <c r="BA10" t="n">
-        <v>0.36</v>
+        <v>0</v>
       </c>
       <c r="BB10" t="n">
-        <v>0.36</v>
+        <v>0</v>
       </c>
       <c r="BC10" t="n">
-        <v>0.36</v>
+        <v>0</v>
       </c>
       <c r="BD10" t="n">
-        <v>0.36</v>
+        <v>0</v>
       </c>
       <c r="BE10" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="BF10" t="n">
         <v>0</v>
@@ -5919,69 +5310,6 @@
         <v>0</v>
       </c>
       <c r="EV10" t="n">
-        <v>0</v>
-      </c>
-      <c r="EW10" t="n">
-        <v>0</v>
-      </c>
-      <c r="EX10" t="n">
-        <v>0</v>
-      </c>
-      <c r="EY10" t="n">
-        <v>0</v>
-      </c>
-      <c r="EZ10" t="n">
-        <v>0</v>
-      </c>
-      <c r="FA10" t="n">
-        <v>0</v>
-      </c>
-      <c r="FB10" t="n">
-        <v>0</v>
-      </c>
-      <c r="FC10" t="n">
-        <v>0</v>
-      </c>
-      <c r="FD10" t="n">
-        <v>0</v>
-      </c>
-      <c r="FE10" t="n">
-        <v>0</v>
-      </c>
-      <c r="FF10" t="n">
-        <v>0</v>
-      </c>
-      <c r="FG10" t="n">
-        <v>0</v>
-      </c>
-      <c r="FH10" t="n">
-        <v>0</v>
-      </c>
-      <c r="FI10" t="n">
-        <v>0</v>
-      </c>
-      <c r="FJ10" t="n">
-        <v>0</v>
-      </c>
-      <c r="FK10" t="n">
-        <v>0</v>
-      </c>
-      <c r="FL10" t="n">
-        <v>0</v>
-      </c>
-      <c r="FM10" t="n">
-        <v>0</v>
-      </c>
-      <c r="FN10" t="n">
-        <v>0</v>
-      </c>
-      <c r="FO10" t="n">
-        <v>0</v>
-      </c>
-      <c r="FP10" t="n">
-        <v>0</v>
-      </c>
-      <c r="FQ10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6002,19 +5330,19 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>0.38</v>
       </c>
       <c r="G11" t="n">
-        <v>0.37</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="J11" t="n">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -6026,7 +5354,7 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0.24</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
@@ -6119,16 +5447,16 @@
         <v>0</v>
       </c>
       <c r="AS11" t="n">
-        <v>0</v>
+        <v>0.46</v>
       </c>
       <c r="AT11" t="n">
-        <v>0</v>
+        <v>0.46</v>
       </c>
       <c r="AU11" t="n">
-        <v>0</v>
+        <v>0.46</v>
       </c>
       <c r="AV11" t="n">
-        <v>0</v>
+        <v>0.46</v>
       </c>
       <c r="AW11" t="n">
         <v>0</v>
@@ -6158,16 +5486,16 @@
         <v>0</v>
       </c>
       <c r="BF11" t="n">
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="BG11" t="n">
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="BH11" t="n">
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="BI11" t="n">
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="BJ11" t="n">
         <v>0</v>
@@ -6440,69 +5768,6 @@
         <v>0</v>
       </c>
       <c r="EV11" t="n">
-        <v>0</v>
-      </c>
-      <c r="EW11" t="n">
-        <v>0</v>
-      </c>
-      <c r="EX11" t="n">
-        <v>0</v>
-      </c>
-      <c r="EY11" t="n">
-        <v>0</v>
-      </c>
-      <c r="EZ11" t="n">
-        <v>0</v>
-      </c>
-      <c r="FA11" t="n">
-        <v>0</v>
-      </c>
-      <c r="FB11" t="n">
-        <v>0</v>
-      </c>
-      <c r="FC11" t="n">
-        <v>0</v>
-      </c>
-      <c r="FD11" t="n">
-        <v>0</v>
-      </c>
-      <c r="FE11" t="n">
-        <v>0</v>
-      </c>
-      <c r="FF11" t="n">
-        <v>0</v>
-      </c>
-      <c r="FG11" t="n">
-        <v>0</v>
-      </c>
-      <c r="FH11" t="n">
-        <v>0</v>
-      </c>
-      <c r="FI11" t="n">
-        <v>0</v>
-      </c>
-      <c r="FJ11" t="n">
-        <v>0</v>
-      </c>
-      <c r="FK11" t="n">
-        <v>0</v>
-      </c>
-      <c r="FL11" t="n">
-        <v>0</v>
-      </c>
-      <c r="FM11" t="n">
-        <v>0</v>
-      </c>
-      <c r="FN11" t="n">
-        <v>0</v>
-      </c>
-      <c r="FO11" t="n">
-        <v>0</v>
-      </c>
-      <c r="FP11" t="n">
-        <v>0</v>
-      </c>
-      <c r="FQ11" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6532,16 +5797,16 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="J12" t="n">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0.09</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -6565,7 +5830,7 @@
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
         <v>0</v>
@@ -6652,16 +5917,16 @@
         <v>0</v>
       </c>
       <c r="AW12" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AX12" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AY12" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AZ12" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="BA12" t="n">
         <v>0</v>
@@ -6691,16 +5956,16 @@
         <v>0</v>
       </c>
       <c r="BJ12" t="n">
-        <v>0.49</v>
+        <v>0</v>
       </c>
       <c r="BK12" t="n">
-        <v>0.49</v>
+        <v>0</v>
       </c>
       <c r="BL12" t="n">
-        <v>0.49</v>
+        <v>0</v>
       </c>
       <c r="BM12" t="n">
-        <v>0.49</v>
+        <v>0</v>
       </c>
       <c r="BN12" t="n">
         <v>0</v>
@@ -6961,69 +6226,6 @@
         <v>0</v>
       </c>
       <c r="EV12" t="n">
-        <v>0</v>
-      </c>
-      <c r="EW12" t="n">
-        <v>0</v>
-      </c>
-      <c r="EX12" t="n">
-        <v>0</v>
-      </c>
-      <c r="EY12" t="n">
-        <v>0</v>
-      </c>
-      <c r="EZ12" t="n">
-        <v>0</v>
-      </c>
-      <c r="FA12" t="n">
-        <v>0</v>
-      </c>
-      <c r="FB12" t="n">
-        <v>0</v>
-      </c>
-      <c r="FC12" t="n">
-        <v>0</v>
-      </c>
-      <c r="FD12" t="n">
-        <v>0</v>
-      </c>
-      <c r="FE12" t="n">
-        <v>0</v>
-      </c>
-      <c r="FF12" t="n">
-        <v>0</v>
-      </c>
-      <c r="FG12" t="n">
-        <v>0</v>
-      </c>
-      <c r="FH12" t="n">
-        <v>0</v>
-      </c>
-      <c r="FI12" t="n">
-        <v>0</v>
-      </c>
-      <c r="FJ12" t="n">
-        <v>0</v>
-      </c>
-      <c r="FK12" t="n">
-        <v>0</v>
-      </c>
-      <c r="FL12" t="n">
-        <v>0</v>
-      </c>
-      <c r="FM12" t="n">
-        <v>0</v>
-      </c>
-      <c r="FN12" t="n">
-        <v>0</v>
-      </c>
-      <c r="FO12" t="n">
-        <v>0</v>
-      </c>
-      <c r="FP12" t="n">
-        <v>0</v>
-      </c>
-      <c r="FQ12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7062,13 +6264,13 @@
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
         <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>0.14</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
         <v>0</v>
@@ -7185,16 +6387,16 @@
         <v>0</v>
       </c>
       <c r="BA13" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="BB13" t="n">
-        <v>0</v>
+        <v>0.38</v>
       </c>
       <c r="BC13" t="n">
-        <v>0</v>
+        <v>0.38</v>
       </c>
       <c r="BD13" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="BE13" t="n">
         <v>0</v>
@@ -7224,19 +6426,19 @@
         <v>0</v>
       </c>
       <c r="BN13" t="n">
-        <v>0.54</v>
+        <v>0</v>
       </c>
       <c r="BO13" t="n">
-        <v>0.35</v>
+        <v>0</v>
       </c>
       <c r="BP13" t="n">
-        <v>0.35</v>
+        <v>0</v>
       </c>
       <c r="BQ13" t="n">
-        <v>0.39</v>
+        <v>0</v>
       </c>
       <c r="BR13" t="n">
-        <v>0.54</v>
+        <v>0</v>
       </c>
       <c r="BS13" t="n">
         <v>0</v>
@@ -7482,69 +6684,6 @@
         <v>0</v>
       </c>
       <c r="EV13" t="n">
-        <v>0</v>
-      </c>
-      <c r="EW13" t="n">
-        <v>0</v>
-      </c>
-      <c r="EX13" t="n">
-        <v>0</v>
-      </c>
-      <c r="EY13" t="n">
-        <v>0</v>
-      </c>
-      <c r="EZ13" t="n">
-        <v>0</v>
-      </c>
-      <c r="FA13" t="n">
-        <v>0</v>
-      </c>
-      <c r="FB13" t="n">
-        <v>0</v>
-      </c>
-      <c r="FC13" t="n">
-        <v>0</v>
-      </c>
-      <c r="FD13" t="n">
-        <v>0</v>
-      </c>
-      <c r="FE13" t="n">
-        <v>0</v>
-      </c>
-      <c r="FF13" t="n">
-        <v>0</v>
-      </c>
-      <c r="FG13" t="n">
-        <v>0</v>
-      </c>
-      <c r="FH13" t="n">
-        <v>0</v>
-      </c>
-      <c r="FI13" t="n">
-        <v>0</v>
-      </c>
-      <c r="FJ13" t="n">
-        <v>0</v>
-      </c>
-      <c r="FK13" t="n">
-        <v>0</v>
-      </c>
-      <c r="FL13" t="n">
-        <v>0</v>
-      </c>
-      <c r="FM13" t="n">
-        <v>0</v>
-      </c>
-      <c r="FN13" t="n">
-        <v>0</v>
-      </c>
-      <c r="FO13" t="n">
-        <v>0</v>
-      </c>
-      <c r="FP13" t="n">
-        <v>0</v>
-      </c>
-      <c r="FQ13" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7574,16 +6713,16 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>0.16</v>
       </c>
       <c r="J14" t="n">
-        <v>0.16</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -7604,10 +6743,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>0.44</v>
       </c>
       <c r="T14" t="n">
-        <v>0.24</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -7625,7 +6764,7 @@
         <v>0</v>
       </c>
       <c r="Z14" t="n">
-        <v>0.42</v>
+        <v>0</v>
       </c>
       <c r="AA14" t="n">
         <v>0</v>
@@ -7640,7 +6779,7 @@
         <v>0</v>
       </c>
       <c r="AE14" t="n">
-        <v>0</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AF14" t="n">
         <v>0</v>
@@ -7670,7 +6809,7 @@
         <v>0</v>
       </c>
       <c r="AO14" t="n">
-        <v>0.54</v>
+        <v>0</v>
       </c>
       <c r="AP14" t="n">
         <v>0</v>
@@ -7718,7 +6857,7 @@
         <v>0</v>
       </c>
       <c r="BE14" t="n">
-        <v>0</v>
+        <v>0.68</v>
       </c>
       <c r="BF14" t="n">
         <v>0</v>
@@ -7760,7 +6899,7 @@
         <v>0</v>
       </c>
       <c r="BS14" t="n">
-        <v>0.66</v>
+        <v>0</v>
       </c>
       <c r="BT14" t="n">
         <v>0</v>
@@ -8003,69 +7142,6 @@
         <v>0</v>
       </c>
       <c r="EV14" t="n">
-        <v>0</v>
-      </c>
-      <c r="EW14" t="n">
-        <v>0</v>
-      </c>
-      <c r="EX14" t="n">
-        <v>0</v>
-      </c>
-      <c r="EY14" t="n">
-        <v>0</v>
-      </c>
-      <c r="EZ14" t="n">
-        <v>0</v>
-      </c>
-      <c r="FA14" t="n">
-        <v>0</v>
-      </c>
-      <c r="FB14" t="n">
-        <v>0</v>
-      </c>
-      <c r="FC14" t="n">
-        <v>0</v>
-      </c>
-      <c r="FD14" t="n">
-        <v>0</v>
-      </c>
-      <c r="FE14" t="n">
-        <v>0</v>
-      </c>
-      <c r="FF14" t="n">
-        <v>0</v>
-      </c>
-      <c r="FG14" t="n">
-        <v>0</v>
-      </c>
-      <c r="FH14" t="n">
-        <v>0</v>
-      </c>
-      <c r="FI14" t="n">
-        <v>0</v>
-      </c>
-      <c r="FJ14" t="n">
-        <v>0</v>
-      </c>
-      <c r="FK14" t="n">
-        <v>0</v>
-      </c>
-      <c r="FL14" t="n">
-        <v>0</v>
-      </c>
-      <c r="FM14" t="n">
-        <v>0</v>
-      </c>
-      <c r="FN14" t="n">
-        <v>0</v>
-      </c>
-      <c r="FO14" t="n">
-        <v>0</v>
-      </c>
-      <c r="FP14" t="n">
-        <v>0</v>
-      </c>
-      <c r="FQ14" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8095,10 +7171,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="J15" t="n">
-        <v>0.07000000000000001</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -8125,13 +7201,13 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="T15" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -8146,7 +7222,7 @@
         <v>0</v>
       </c>
       <c r="Z15" t="n">
-        <v>0.18</v>
+        <v>0</v>
       </c>
       <c r="AA15" t="n">
         <v>0</v>
@@ -8242,34 +7318,34 @@
         <v>0</v>
       </c>
       <c r="BF15" t="n">
-        <v>0</v>
+        <v>0.31</v>
       </c>
       <c r="BG15" t="n">
-        <v>0</v>
+        <v>0.31</v>
       </c>
       <c r="BH15" t="n">
-        <v>0</v>
+        <v>0.31</v>
       </c>
       <c r="BI15" t="n">
-        <v>0</v>
+        <v>0.31</v>
       </c>
       <c r="BJ15" t="n">
-        <v>0</v>
+        <v>0.31</v>
       </c>
       <c r="BK15" t="n">
-        <v>0</v>
+        <v>0.31</v>
       </c>
       <c r="BL15" t="n">
-        <v>0</v>
+        <v>0.31</v>
       </c>
       <c r="BM15" t="n">
-        <v>0</v>
+        <v>0.31</v>
       </c>
       <c r="BN15" t="n">
-        <v>0</v>
+        <v>0.31</v>
       </c>
       <c r="BO15" t="n">
-        <v>0</v>
+        <v>0.31</v>
       </c>
       <c r="BP15" t="n">
         <v>0</v>
@@ -8284,37 +7360,37 @@
         <v>0</v>
       </c>
       <c r="BT15" t="n">
-        <v>0.28</v>
+        <v>0</v>
       </c>
       <c r="BU15" t="n">
-        <v>0.28</v>
+        <v>0</v>
       </c>
       <c r="BV15" t="n">
-        <v>0.28</v>
+        <v>0</v>
       </c>
       <c r="BW15" t="n">
-        <v>0.28</v>
+        <v>0</v>
       </c>
       <c r="BX15" t="n">
-        <v>0.28</v>
+        <v>0</v>
       </c>
       <c r="BY15" t="n">
-        <v>0.28</v>
+        <v>0</v>
       </c>
       <c r="BZ15" t="n">
-        <v>0.28</v>
+        <v>0</v>
       </c>
       <c r="CA15" t="n">
-        <v>0.28</v>
+        <v>0</v>
       </c>
       <c r="CB15" t="n">
-        <v>0.28</v>
+        <v>0</v>
       </c>
       <c r="CC15" t="n">
-        <v>0.28</v>
+        <v>0</v>
       </c>
       <c r="CD15" t="n">
-        <v>0.28</v>
+        <v>0</v>
       </c>
       <c r="CE15" t="n">
         <v>0</v>
@@ -8524,69 +7600,6 @@
         <v>0</v>
       </c>
       <c r="EV15" t="n">
-        <v>0</v>
-      </c>
-      <c r="EW15" t="n">
-        <v>0</v>
-      </c>
-      <c r="EX15" t="n">
-        <v>0</v>
-      </c>
-      <c r="EY15" t="n">
-        <v>0</v>
-      </c>
-      <c r="EZ15" t="n">
-        <v>0</v>
-      </c>
-      <c r="FA15" t="n">
-        <v>0</v>
-      </c>
-      <c r="FB15" t="n">
-        <v>0</v>
-      </c>
-      <c r="FC15" t="n">
-        <v>0</v>
-      </c>
-      <c r="FD15" t="n">
-        <v>0</v>
-      </c>
-      <c r="FE15" t="n">
-        <v>0</v>
-      </c>
-      <c r="FF15" t="n">
-        <v>0</v>
-      </c>
-      <c r="FG15" t="n">
-        <v>0</v>
-      </c>
-      <c r="FH15" t="n">
-        <v>0</v>
-      </c>
-      <c r="FI15" t="n">
-        <v>0</v>
-      </c>
-      <c r="FJ15" t="n">
-        <v>0</v>
-      </c>
-      <c r="FK15" t="n">
-        <v>0</v>
-      </c>
-      <c r="FL15" t="n">
-        <v>0</v>
-      </c>
-      <c r="FM15" t="n">
-        <v>0</v>
-      </c>
-      <c r="FN15" t="n">
-        <v>0</v>
-      </c>
-      <c r="FO15" t="n">
-        <v>0</v>
-      </c>
-      <c r="FP15" t="n">
-        <v>0</v>
-      </c>
-      <c r="FQ15" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8616,16 +7629,16 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="J16" t="n">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
         <v>0</v>
@@ -8649,10 +7662,10 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0.26</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0.39</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -8751,7 +7764,7 @@
         <v>0</v>
       </c>
       <c r="BB16" t="n">
-        <v>0</v>
+        <v>0.53</v>
       </c>
       <c r="BC16" t="n">
         <v>0</v>
@@ -8790,10 +7803,10 @@
         <v>0</v>
       </c>
       <c r="BO16" t="n">
-        <v>0.46</v>
+        <v>0</v>
       </c>
       <c r="BP16" t="n">
-        <v>0</v>
+        <v>0.82</v>
       </c>
       <c r="BQ16" t="n">
         <v>0</v>
@@ -8838,7 +7851,7 @@
         <v>0</v>
       </c>
       <c r="CE16" t="n">
-        <v>0.72</v>
+        <v>0</v>
       </c>
       <c r="CF16" t="n">
         <v>0</v>
@@ -9045,69 +8058,6 @@
         <v>0</v>
       </c>
       <c r="EV16" t="n">
-        <v>0</v>
-      </c>
-      <c r="EW16" t="n">
-        <v>0</v>
-      </c>
-      <c r="EX16" t="n">
-        <v>0</v>
-      </c>
-      <c r="EY16" t="n">
-        <v>0</v>
-      </c>
-      <c r="EZ16" t="n">
-        <v>0</v>
-      </c>
-      <c r="FA16" t="n">
-        <v>0</v>
-      </c>
-      <c r="FB16" t="n">
-        <v>0</v>
-      </c>
-      <c r="FC16" t="n">
-        <v>0</v>
-      </c>
-      <c r="FD16" t="n">
-        <v>0</v>
-      </c>
-      <c r="FE16" t="n">
-        <v>0</v>
-      </c>
-      <c r="FF16" t="n">
-        <v>0</v>
-      </c>
-      <c r="FG16" t="n">
-        <v>0</v>
-      </c>
-      <c r="FH16" t="n">
-        <v>0</v>
-      </c>
-      <c r="FI16" t="n">
-        <v>0</v>
-      </c>
-      <c r="FJ16" t="n">
-        <v>0</v>
-      </c>
-      <c r="FK16" t="n">
-        <v>0</v>
-      </c>
-      <c r="FL16" t="n">
-        <v>0</v>
-      </c>
-      <c r="FM16" t="n">
-        <v>0</v>
-      </c>
-      <c r="FN16" t="n">
-        <v>0</v>
-      </c>
-      <c r="FO16" t="n">
-        <v>0</v>
-      </c>
-      <c r="FP16" t="n">
-        <v>0</v>
-      </c>
-      <c r="FQ16" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9125,7 +8075,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0.26</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -9137,16 +8087,16 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="J17" t="n">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>0.09</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -9170,7 +8120,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0.18</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -9317,16 +8267,16 @@
         <v>0</v>
       </c>
       <c r="BQ17" t="n">
-        <v>0</v>
+        <v>0.52</v>
       </c>
       <c r="BR17" t="n">
-        <v>0</v>
+        <v>0.42</v>
       </c>
       <c r="BS17" t="n">
-        <v>0</v>
+        <v>0.52</v>
       </c>
       <c r="BT17" t="n">
-        <v>0</v>
+        <v>0.52</v>
       </c>
       <c r="BU17" t="n">
         <v>0</v>
@@ -9362,16 +8312,16 @@
         <v>0</v>
       </c>
       <c r="CF17" t="n">
-        <v>0.49</v>
+        <v>0</v>
       </c>
       <c r="CG17" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="CH17" t="n">
-        <v>0.49</v>
+        <v>0</v>
       </c>
       <c r="CI17" t="n">
-        <v>0.49</v>
+        <v>0</v>
       </c>
       <c r="CJ17" t="n">
         <v>0</v>
@@ -9566,69 +8516,6 @@
         <v>0</v>
       </c>
       <c r="EV17" t="n">
-        <v>0</v>
-      </c>
-      <c r="EW17" t="n">
-        <v>0</v>
-      </c>
-      <c r="EX17" t="n">
-        <v>0</v>
-      </c>
-      <c r="EY17" t="n">
-        <v>0</v>
-      </c>
-      <c r="EZ17" t="n">
-        <v>0</v>
-      </c>
-      <c r="FA17" t="n">
-        <v>0</v>
-      </c>
-      <c r="FB17" t="n">
-        <v>0</v>
-      </c>
-      <c r="FC17" t="n">
-        <v>0</v>
-      </c>
-      <c r="FD17" t="n">
-        <v>0</v>
-      </c>
-      <c r="FE17" t="n">
-        <v>0</v>
-      </c>
-      <c r="FF17" t="n">
-        <v>0</v>
-      </c>
-      <c r="FG17" t="n">
-        <v>0</v>
-      </c>
-      <c r="FH17" t="n">
-        <v>0</v>
-      </c>
-      <c r="FI17" t="n">
-        <v>0</v>
-      </c>
-      <c r="FJ17" t="n">
-        <v>0</v>
-      </c>
-      <c r="FK17" t="n">
-        <v>0</v>
-      </c>
-      <c r="FL17" t="n">
-        <v>0</v>
-      </c>
-      <c r="FM17" t="n">
-        <v>0</v>
-      </c>
-      <c r="FN17" t="n">
-        <v>0</v>
-      </c>
-      <c r="FO17" t="n">
-        <v>0</v>
-      </c>
-      <c r="FP17" t="n">
-        <v>0</v>
-      </c>
-      <c r="FQ17" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9691,7 +8578,7 @@
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
@@ -9802,7 +8689,7 @@
         <v>0</v>
       </c>
       <c r="BE18" t="n">
-        <v>0.27</v>
+        <v>0</v>
       </c>
       <c r="BF18" t="n">
         <v>0</v>
@@ -9850,25 +8737,25 @@
         <v>0</v>
       </c>
       <c r="BU18" t="n">
-        <v>0</v>
+        <v>0.38</v>
       </c>
       <c r="BV18" t="n">
-        <v>0</v>
+        <v>0.38</v>
       </c>
       <c r="BW18" t="n">
-        <v>0</v>
+        <v>0.38</v>
       </c>
       <c r="BX18" t="n">
-        <v>0</v>
+        <v>0.38</v>
       </c>
       <c r="BY18" t="n">
-        <v>0</v>
+        <v>0.38</v>
       </c>
       <c r="BZ18" t="n">
-        <v>0</v>
+        <v>0.38</v>
       </c>
       <c r="CA18" t="n">
-        <v>0</v>
+        <v>0.38</v>
       </c>
       <c r="CB18" t="n">
         <v>0</v>
@@ -9895,31 +8782,31 @@
         <v>0</v>
       </c>
       <c r="CJ18" t="n">
-        <v>0.27</v>
+        <v>0</v>
       </c>
       <c r="CK18" t="n">
-        <v>0.32</v>
+        <v>0</v>
       </c>
       <c r="CL18" t="n">
-        <v>0.32</v>
+        <v>0</v>
       </c>
       <c r="CM18" t="n">
-        <v>0.32</v>
+        <v>0</v>
       </c>
       <c r="CN18" t="n">
-        <v>0.32</v>
+        <v>0</v>
       </c>
       <c r="CO18" t="n">
-        <v>0.32</v>
+        <v>0</v>
       </c>
       <c r="CP18" t="n">
-        <v>0.32</v>
+        <v>0</v>
       </c>
       <c r="CQ18" t="n">
-        <v>0.32</v>
+        <v>0</v>
       </c>
       <c r="CR18" t="n">
-        <v>0.32</v>
+        <v>0</v>
       </c>
       <c r="CS18" t="n">
         <v>0</v>
@@ -10087,69 +8974,6 @@
         <v>0</v>
       </c>
       <c r="EV18" t="n">
-        <v>0</v>
-      </c>
-      <c r="EW18" t="n">
-        <v>0</v>
-      </c>
-      <c r="EX18" t="n">
-        <v>0</v>
-      </c>
-      <c r="EY18" t="n">
-        <v>0</v>
-      </c>
-      <c r="EZ18" t="n">
-        <v>0</v>
-      </c>
-      <c r="FA18" t="n">
-        <v>0</v>
-      </c>
-      <c r="FB18" t="n">
-        <v>0</v>
-      </c>
-      <c r="FC18" t="n">
-        <v>0</v>
-      </c>
-      <c r="FD18" t="n">
-        <v>0</v>
-      </c>
-      <c r="FE18" t="n">
-        <v>0</v>
-      </c>
-      <c r="FF18" t="n">
-        <v>0</v>
-      </c>
-      <c r="FG18" t="n">
-        <v>0</v>
-      </c>
-      <c r="FH18" t="n">
-        <v>0</v>
-      </c>
-      <c r="FI18" t="n">
-        <v>0</v>
-      </c>
-      <c r="FJ18" t="n">
-        <v>0</v>
-      </c>
-      <c r="FK18" t="n">
-        <v>0</v>
-      </c>
-      <c r="FL18" t="n">
-        <v>0</v>
-      </c>
-      <c r="FM18" t="n">
-        <v>0</v>
-      </c>
-      <c r="FN18" t="n">
-        <v>0</v>
-      </c>
-      <c r="FO18" t="n">
-        <v>0</v>
-      </c>
-      <c r="FP18" t="n">
-        <v>0</v>
-      </c>
-      <c r="FQ18" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10260,16 +9084,16 @@
         <v>0</v>
       </c>
       <c r="AJ19" t="n">
-        <v>0</v>
+        <v>0.49</v>
       </c>
       <c r="AK19" t="n">
-        <v>0</v>
+        <v>0.49</v>
       </c>
       <c r="AL19" t="n">
-        <v>0</v>
+        <v>0.49</v>
       </c>
       <c r="AM19" t="n">
-        <v>0</v>
+        <v>0.54</v>
       </c>
       <c r="AN19" t="n">
         <v>0</v>
@@ -10290,16 +9114,16 @@
         <v>0</v>
       </c>
       <c r="AT19" t="n">
-        <v>0.49</v>
+        <v>0</v>
       </c>
       <c r="AU19" t="n">
-        <v>0.49</v>
+        <v>0</v>
       </c>
       <c r="AV19" t="n">
-        <v>0.49</v>
+        <v>0</v>
       </c>
       <c r="AW19" t="n">
-        <v>0.54</v>
+        <v>0</v>
       </c>
       <c r="AX19" t="n">
         <v>0</v>
@@ -10608,69 +9432,6 @@
         <v>0</v>
       </c>
       <c r="EV19" t="n">
-        <v>0</v>
-      </c>
-      <c r="EW19" t="n">
-        <v>0</v>
-      </c>
-      <c r="EX19" t="n">
-        <v>0</v>
-      </c>
-      <c r="EY19" t="n">
-        <v>0</v>
-      </c>
-      <c r="EZ19" t="n">
-        <v>0</v>
-      </c>
-      <c r="FA19" t="n">
-        <v>0</v>
-      </c>
-      <c r="FB19" t="n">
-        <v>0</v>
-      </c>
-      <c r="FC19" t="n">
-        <v>0</v>
-      </c>
-      <c r="FD19" t="n">
-        <v>0</v>
-      </c>
-      <c r="FE19" t="n">
-        <v>0</v>
-      </c>
-      <c r="FF19" t="n">
-        <v>0</v>
-      </c>
-      <c r="FG19" t="n">
-        <v>0</v>
-      </c>
-      <c r="FH19" t="n">
-        <v>0</v>
-      </c>
-      <c r="FI19" t="n">
-        <v>0</v>
-      </c>
-      <c r="FJ19" t="n">
-        <v>0</v>
-      </c>
-      <c r="FK19" t="n">
-        <v>0</v>
-      </c>
-      <c r="FL19" t="n">
-        <v>0</v>
-      </c>
-      <c r="FM19" t="n">
-        <v>0</v>
-      </c>
-      <c r="FN19" t="n">
-        <v>0</v>
-      </c>
-      <c r="FO19" t="n">
-        <v>0</v>
-      </c>
-      <c r="FP19" t="n">
-        <v>0</v>
-      </c>
-      <c r="FQ19" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10700,10 +9461,10 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>0.23</v>
       </c>
       <c r="J20" t="n">
-        <v>0.23</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -10913,7 +9674,7 @@
         <v>0</v>
       </c>
       <c r="CB20" t="n">
-        <v>0</v>
+        <v>0.97</v>
       </c>
       <c r="CC20" t="n">
         <v>0</v>
@@ -10964,7 +9725,7 @@
         <v>0</v>
       </c>
       <c r="CS20" t="n">
-        <v>0.97</v>
+        <v>0</v>
       </c>
       <c r="CT20" t="n">
         <v>0</v>
@@ -11129,69 +9890,6 @@
         <v>0</v>
       </c>
       <c r="EV20" t="n">
-        <v>0</v>
-      </c>
-      <c r="EW20" t="n">
-        <v>0</v>
-      </c>
-      <c r="EX20" t="n">
-        <v>0</v>
-      </c>
-      <c r="EY20" t="n">
-        <v>0</v>
-      </c>
-      <c r="EZ20" t="n">
-        <v>0</v>
-      </c>
-      <c r="FA20" t="n">
-        <v>0</v>
-      </c>
-      <c r="FB20" t="n">
-        <v>0</v>
-      </c>
-      <c r="FC20" t="n">
-        <v>0</v>
-      </c>
-      <c r="FD20" t="n">
-        <v>0</v>
-      </c>
-      <c r="FE20" t="n">
-        <v>0</v>
-      </c>
-      <c r="FF20" t="n">
-        <v>0</v>
-      </c>
-      <c r="FG20" t="n">
-        <v>0</v>
-      </c>
-      <c r="FH20" t="n">
-        <v>0</v>
-      </c>
-      <c r="FI20" t="n">
-        <v>0</v>
-      </c>
-      <c r="FJ20" t="n">
-        <v>0</v>
-      </c>
-      <c r="FK20" t="n">
-        <v>0</v>
-      </c>
-      <c r="FL20" t="n">
-        <v>0</v>
-      </c>
-      <c r="FM20" t="n">
-        <v>0</v>
-      </c>
-      <c r="FN20" t="n">
-        <v>0</v>
-      </c>
-      <c r="FO20" t="n">
-        <v>0</v>
-      </c>
-      <c r="FP20" t="n">
-        <v>0</v>
-      </c>
-      <c r="FQ20" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11437,13 +10135,13 @@
         <v>0</v>
       </c>
       <c r="CC21" t="n">
-        <v>0</v>
+        <v>0.58</v>
       </c>
       <c r="CD21" t="n">
-        <v>0</v>
+        <v>0.58</v>
       </c>
       <c r="CE21" t="n">
-        <v>0</v>
+        <v>0.58</v>
       </c>
       <c r="CF21" t="n">
         <v>0</v>
@@ -11488,13 +10186,13 @@
         <v>0</v>
       </c>
       <c r="CT21" t="n">
-        <v>0.58</v>
+        <v>0</v>
       </c>
       <c r="CU21" t="n">
-        <v>0.58</v>
+        <v>0</v>
       </c>
       <c r="CV21" t="n">
-        <v>0.58</v>
+        <v>0</v>
       </c>
       <c r="CW21" t="n">
         <v>0</v>
@@ -11650,69 +10348,6 @@
         <v>0</v>
       </c>
       <c r="EV21" t="n">
-        <v>0</v>
-      </c>
-      <c r="EW21" t="n">
-        <v>0</v>
-      </c>
-      <c r="EX21" t="n">
-        <v>0</v>
-      </c>
-      <c r="EY21" t="n">
-        <v>0</v>
-      </c>
-      <c r="EZ21" t="n">
-        <v>0</v>
-      </c>
-      <c r="FA21" t="n">
-        <v>0</v>
-      </c>
-      <c r="FB21" t="n">
-        <v>0</v>
-      </c>
-      <c r="FC21" t="n">
-        <v>0</v>
-      </c>
-      <c r="FD21" t="n">
-        <v>0</v>
-      </c>
-      <c r="FE21" t="n">
-        <v>0</v>
-      </c>
-      <c r="FF21" t="n">
-        <v>0</v>
-      </c>
-      <c r="FG21" t="n">
-        <v>0</v>
-      </c>
-      <c r="FH21" t="n">
-        <v>0</v>
-      </c>
-      <c r="FI21" t="n">
-        <v>0</v>
-      </c>
-      <c r="FJ21" t="n">
-        <v>0</v>
-      </c>
-      <c r="FK21" t="n">
-        <v>0</v>
-      </c>
-      <c r="FL21" t="n">
-        <v>0</v>
-      </c>
-      <c r="FM21" t="n">
-        <v>0</v>
-      </c>
-      <c r="FN21" t="n">
-        <v>0</v>
-      </c>
-      <c r="FO21" t="n">
-        <v>0</v>
-      </c>
-      <c r="FP21" t="n">
-        <v>0</v>
-      </c>
-      <c r="FQ21" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11742,10 +10377,10 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>0.23</v>
       </c>
       <c r="J22" t="n">
-        <v>0.23</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -11967,7 +10602,7 @@
         <v>0</v>
       </c>
       <c r="CF22" t="n">
-        <v>0</v>
+        <v>0.97</v>
       </c>
       <c r="CG22" t="n">
         <v>0</v>
@@ -12018,7 +10653,7 @@
         <v>0</v>
       </c>
       <c r="CW22" t="n">
-        <v>0.97</v>
+        <v>0</v>
       </c>
       <c r="CX22" t="n">
         <v>0</v>
@@ -12171,69 +10806,6 @@
         <v>0</v>
       </c>
       <c r="EV22" t="n">
-        <v>0</v>
-      </c>
-      <c r="EW22" t="n">
-        <v>0</v>
-      </c>
-      <c r="EX22" t="n">
-        <v>0</v>
-      </c>
-      <c r="EY22" t="n">
-        <v>0</v>
-      </c>
-      <c r="EZ22" t="n">
-        <v>0</v>
-      </c>
-      <c r="FA22" t="n">
-        <v>0</v>
-      </c>
-      <c r="FB22" t="n">
-        <v>0</v>
-      </c>
-      <c r="FC22" t="n">
-        <v>0</v>
-      </c>
-      <c r="FD22" t="n">
-        <v>0</v>
-      </c>
-      <c r="FE22" t="n">
-        <v>0</v>
-      </c>
-      <c r="FF22" t="n">
-        <v>0</v>
-      </c>
-      <c r="FG22" t="n">
-        <v>0</v>
-      </c>
-      <c r="FH22" t="n">
-        <v>0</v>
-      </c>
-      <c r="FI22" t="n">
-        <v>0</v>
-      </c>
-      <c r="FJ22" t="n">
-        <v>0</v>
-      </c>
-      <c r="FK22" t="n">
-        <v>0</v>
-      </c>
-      <c r="FL22" t="n">
-        <v>0</v>
-      </c>
-      <c r="FM22" t="n">
-        <v>0</v>
-      </c>
-      <c r="FN22" t="n">
-        <v>0</v>
-      </c>
-      <c r="FO22" t="n">
-        <v>0</v>
-      </c>
-      <c r="FP22" t="n">
-        <v>0</v>
-      </c>
-      <c r="FQ22" t="n">
         <v>0</v>
       </c>
     </row>
@@ -12275,7 +10847,7 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0.18</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -12296,7 +10868,7 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -12491,16 +11063,16 @@
         <v>0</v>
       </c>
       <c r="CG23" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="CH23" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="CI23" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="CJ23" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="CK23" t="n">
         <v>0</v>
@@ -12542,16 +11114,16 @@
         <v>0</v>
       </c>
       <c r="CX23" t="n">
-        <v>0.48</v>
+        <v>0</v>
       </c>
       <c r="CY23" t="n">
-        <v>0.48</v>
+        <v>0</v>
       </c>
       <c r="CZ23" t="n">
-        <v>0.48</v>
+        <v>0</v>
       </c>
       <c r="DA23" t="n">
-        <v>0.48</v>
+        <v>0</v>
       </c>
       <c r="DB23" t="n">
         <v>0</v>
@@ -12692,69 +11264,6 @@
         <v>0</v>
       </c>
       <c r="EV23" t="n">
-        <v>0</v>
-      </c>
-      <c r="EW23" t="n">
-        <v>0</v>
-      </c>
-      <c r="EX23" t="n">
-        <v>0</v>
-      </c>
-      <c r="EY23" t="n">
-        <v>0</v>
-      </c>
-      <c r="EZ23" t="n">
-        <v>0</v>
-      </c>
-      <c r="FA23" t="n">
-        <v>0</v>
-      </c>
-      <c r="FB23" t="n">
-        <v>0</v>
-      </c>
-      <c r="FC23" t="n">
-        <v>0</v>
-      </c>
-      <c r="FD23" t="n">
-        <v>0</v>
-      </c>
-      <c r="FE23" t="n">
-        <v>0</v>
-      </c>
-      <c r="FF23" t="n">
-        <v>0</v>
-      </c>
-      <c r="FG23" t="n">
-        <v>0</v>
-      </c>
-      <c r="FH23" t="n">
-        <v>0</v>
-      </c>
-      <c r="FI23" t="n">
-        <v>0</v>
-      </c>
-      <c r="FJ23" t="n">
-        <v>0</v>
-      </c>
-      <c r="FK23" t="n">
-        <v>0</v>
-      </c>
-      <c r="FL23" t="n">
-        <v>0</v>
-      </c>
-      <c r="FM23" t="n">
-        <v>0</v>
-      </c>
-      <c r="FN23" t="n">
-        <v>0</v>
-      </c>
-      <c r="FO23" t="n">
-        <v>0</v>
-      </c>
-      <c r="FP23" t="n">
-        <v>0</v>
-      </c>
-      <c r="FQ23" t="n">
         <v>0</v>
       </c>
     </row>
@@ -12772,7 +11281,7 @@
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>0.24</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
@@ -12793,13 +11302,13 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>0.24</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -12859,7 +11368,7 @@
         <v>0</v>
       </c>
       <c r="AH24" t="n">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="AI24" t="n">
         <v>0</v>
@@ -12889,7 +11398,7 @@
         <v>0</v>
       </c>
       <c r="AR24" t="n">
-        <v>0.37</v>
+        <v>0</v>
       </c>
       <c r="AS24" t="n">
         <v>0</v>
@@ -13024,13 +11533,13 @@
         <v>0</v>
       </c>
       <c r="CK24" t="n">
-        <v>0</v>
+        <v>0.55</v>
       </c>
       <c r="CL24" t="n">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="CM24" t="n">
-        <v>0</v>
+        <v>0.55</v>
       </c>
       <c r="CN24" t="n">
         <v>0</v>
@@ -13075,16 +11584,16 @@
         <v>0</v>
       </c>
       <c r="DB24" t="n">
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="DC24" t="n">
-        <v>0.37</v>
+        <v>0</v>
       </c>
       <c r="DD24" t="n">
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="DE24" t="n">
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="DF24" t="n">
         <v>0</v>
@@ -13213,69 +11722,6 @@
         <v>0</v>
       </c>
       <c r="EV24" t="n">
-        <v>0</v>
-      </c>
-      <c r="EW24" t="n">
-        <v>0</v>
-      </c>
-      <c r="EX24" t="n">
-        <v>0</v>
-      </c>
-      <c r="EY24" t="n">
-        <v>0</v>
-      </c>
-      <c r="EZ24" t="n">
-        <v>0</v>
-      </c>
-      <c r="FA24" t="n">
-        <v>0</v>
-      </c>
-      <c r="FB24" t="n">
-        <v>0</v>
-      </c>
-      <c r="FC24" t="n">
-        <v>0</v>
-      </c>
-      <c r="FD24" t="n">
-        <v>0</v>
-      </c>
-      <c r="FE24" t="n">
-        <v>0</v>
-      </c>
-      <c r="FF24" t="n">
-        <v>0</v>
-      </c>
-      <c r="FG24" t="n">
-        <v>0</v>
-      </c>
-      <c r="FH24" t="n">
-        <v>0</v>
-      </c>
-      <c r="FI24" t="n">
-        <v>0</v>
-      </c>
-      <c r="FJ24" t="n">
-        <v>0</v>
-      </c>
-      <c r="FK24" t="n">
-        <v>0</v>
-      </c>
-      <c r="FL24" t="n">
-        <v>0</v>
-      </c>
-      <c r="FM24" t="n">
-        <v>0</v>
-      </c>
-      <c r="FN24" t="n">
-        <v>0</v>
-      </c>
-      <c r="FO24" t="n">
-        <v>0</v>
-      </c>
-      <c r="FP24" t="n">
-        <v>0</v>
-      </c>
-      <c r="FQ24" t="n">
         <v>0</v>
       </c>
     </row>
@@ -13293,7 +11739,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -13314,7 +11760,7 @@
         <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
         <v>0</v>
@@ -13359,7 +11805,7 @@
         <v>0</v>
       </c>
       <c r="AA25" t="n">
-        <v>0</v>
+        <v>0.62</v>
       </c>
       <c r="AB25" t="n">
         <v>0</v>
@@ -13383,7 +11829,7 @@
         <v>0</v>
       </c>
       <c r="AI25" t="n">
-        <v>0.54</v>
+        <v>0</v>
       </c>
       <c r="AJ25" t="n">
         <v>0</v>
@@ -13554,7 +12000,7 @@
         <v>0</v>
       </c>
       <c r="CN25" t="n">
-        <v>0</v>
+        <v>0.79</v>
       </c>
       <c r="CO25" t="n">
         <v>0</v>
@@ -13608,7 +12054,7 @@
         <v>0</v>
       </c>
       <c r="DF25" t="n">
-        <v>0.6899999999999999</v>
+        <v>0</v>
       </c>
       <c r="DG25" t="n">
         <v>0</v>
@@ -13734,69 +12180,6 @@
         <v>0</v>
       </c>
       <c r="EV25" t="n">
-        <v>0</v>
-      </c>
-      <c r="EW25" t="n">
-        <v>0</v>
-      </c>
-      <c r="EX25" t="n">
-        <v>0</v>
-      </c>
-      <c r="EY25" t="n">
-        <v>0</v>
-      </c>
-      <c r="EZ25" t="n">
-        <v>0</v>
-      </c>
-      <c r="FA25" t="n">
-        <v>0</v>
-      </c>
-      <c r="FB25" t="n">
-        <v>0</v>
-      </c>
-      <c r="FC25" t="n">
-        <v>0</v>
-      </c>
-      <c r="FD25" t="n">
-        <v>0</v>
-      </c>
-      <c r="FE25" t="n">
-        <v>0</v>
-      </c>
-      <c r="FF25" t="n">
-        <v>0</v>
-      </c>
-      <c r="FG25" t="n">
-        <v>0</v>
-      </c>
-      <c r="FH25" t="n">
-        <v>0</v>
-      </c>
-      <c r="FI25" t="n">
-        <v>0</v>
-      </c>
-      <c r="FJ25" t="n">
-        <v>0</v>
-      </c>
-      <c r="FK25" t="n">
-        <v>0</v>
-      </c>
-      <c r="FL25" t="n">
-        <v>0</v>
-      </c>
-      <c r="FM25" t="n">
-        <v>0</v>
-      </c>
-      <c r="FN25" t="n">
-        <v>0</v>
-      </c>
-      <c r="FO25" t="n">
-        <v>0</v>
-      </c>
-      <c r="FP25" t="n">
-        <v>0</v>
-      </c>
-      <c r="FQ25" t="n">
         <v>0</v>
       </c>
     </row>
@@ -13835,7 +12218,7 @@
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -13859,7 +12242,7 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0.24</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -13964,7 +12347,7 @@
         <v>0</v>
       </c>
       <c r="BC26" t="n">
-        <v>0</v>
+        <v>0.44</v>
       </c>
       <c r="BD26" t="n">
         <v>0</v>
@@ -14003,7 +12386,7 @@
         <v>0</v>
       </c>
       <c r="BP26" t="n">
-        <v>0.43</v>
+        <v>0</v>
       </c>
       <c r="BQ26" t="n">
         <v>0</v>
@@ -14075,10 +12458,10 @@
         <v>0</v>
       </c>
       <c r="CN26" t="n">
-        <v>0</v>
+        <v>0.57</v>
       </c>
       <c r="CO26" t="n">
-        <v>0</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="CP26" t="n">
         <v>0</v>
@@ -14129,10 +12512,10 @@
         <v>0</v>
       </c>
       <c r="DF26" t="n">
-        <v>0.55</v>
+        <v>0</v>
       </c>
       <c r="DG26" t="n">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="DH26" t="n">
         <v>0</v>
@@ -14255,69 +12638,6 @@
         <v>0</v>
       </c>
       <c r="EV26" t="n">
-        <v>0</v>
-      </c>
-      <c r="EW26" t="n">
-        <v>0</v>
-      </c>
-      <c r="EX26" t="n">
-        <v>0</v>
-      </c>
-      <c r="EY26" t="n">
-        <v>0</v>
-      </c>
-      <c r="EZ26" t="n">
-        <v>0</v>
-      </c>
-      <c r="FA26" t="n">
-        <v>0</v>
-      </c>
-      <c r="FB26" t="n">
-        <v>0</v>
-      </c>
-      <c r="FC26" t="n">
-        <v>0</v>
-      </c>
-      <c r="FD26" t="n">
-        <v>0</v>
-      </c>
-      <c r="FE26" t="n">
-        <v>0</v>
-      </c>
-      <c r="FF26" t="n">
-        <v>0</v>
-      </c>
-      <c r="FG26" t="n">
-        <v>0</v>
-      </c>
-      <c r="FH26" t="n">
-        <v>0</v>
-      </c>
-      <c r="FI26" t="n">
-        <v>0</v>
-      </c>
-      <c r="FJ26" t="n">
-        <v>0</v>
-      </c>
-      <c r="FK26" t="n">
-        <v>0</v>
-      </c>
-      <c r="FL26" t="n">
-        <v>0</v>
-      </c>
-      <c r="FM26" t="n">
-        <v>0</v>
-      </c>
-      <c r="FN26" t="n">
-        <v>0</v>
-      </c>
-      <c r="FO26" t="n">
-        <v>0</v>
-      </c>
-      <c r="FP26" t="n">
-        <v>0</v>
-      </c>
-      <c r="FQ26" t="n">
         <v>0</v>
       </c>
     </row>
@@ -14350,13 +12670,13 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>0.62</v>
       </c>
       <c r="K27" t="n">
-        <v>0.61</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -14401,7 +12721,7 @@
         <v>0</v>
       </c>
       <c r="AA27" t="n">
-        <v>0</v>
+        <v>0.48</v>
       </c>
       <c r="AB27" t="n">
         <v>0</v>
@@ -14425,7 +12745,7 @@
         <v>0</v>
       </c>
       <c r="AI27" t="n">
-        <v>0.48</v>
+        <v>0</v>
       </c>
       <c r="AJ27" t="n">
         <v>0</v>
@@ -14602,7 +12922,7 @@
         <v>0</v>
       </c>
       <c r="CP27" t="n">
-        <v>0</v>
+        <v>0.62</v>
       </c>
       <c r="CQ27" t="n">
         <v>0</v>
@@ -14656,7 +12976,7 @@
         <v>0</v>
       </c>
       <c r="DH27" t="n">
-        <v>0.61</v>
+        <v>0</v>
       </c>
       <c r="DI27" t="n">
         <v>0</v>
@@ -14776,69 +13096,6 @@
         <v>0</v>
       </c>
       <c r="EV27" t="n">
-        <v>0</v>
-      </c>
-      <c r="EW27" t="n">
-        <v>0</v>
-      </c>
-      <c r="EX27" t="n">
-        <v>0</v>
-      </c>
-      <c r="EY27" t="n">
-        <v>0</v>
-      </c>
-      <c r="EZ27" t="n">
-        <v>0</v>
-      </c>
-      <c r="FA27" t="n">
-        <v>0</v>
-      </c>
-      <c r="FB27" t="n">
-        <v>0</v>
-      </c>
-      <c r="FC27" t="n">
-        <v>0</v>
-      </c>
-      <c r="FD27" t="n">
-        <v>0</v>
-      </c>
-      <c r="FE27" t="n">
-        <v>0</v>
-      </c>
-      <c r="FF27" t="n">
-        <v>0</v>
-      </c>
-      <c r="FG27" t="n">
-        <v>0</v>
-      </c>
-      <c r="FH27" t="n">
-        <v>0</v>
-      </c>
-      <c r="FI27" t="n">
-        <v>0</v>
-      </c>
-      <c r="FJ27" t="n">
-        <v>0</v>
-      </c>
-      <c r="FK27" t="n">
-        <v>0</v>
-      </c>
-      <c r="FL27" t="n">
-        <v>0</v>
-      </c>
-      <c r="FM27" t="n">
-        <v>0</v>
-      </c>
-      <c r="FN27" t="n">
-        <v>0</v>
-      </c>
-      <c r="FO27" t="n">
-        <v>0</v>
-      </c>
-      <c r="FP27" t="n">
-        <v>0</v>
-      </c>
-      <c r="FQ27" t="n">
         <v>0</v>
       </c>
     </row>
@@ -15126,16 +13383,16 @@
         <v>0</v>
       </c>
       <c r="CQ28" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="CR28" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="CS28" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="CT28" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="CU28" t="n">
         <v>0</v>
@@ -15180,19 +13437,19 @@
         <v>0</v>
       </c>
       <c r="DI28" t="n">
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="DJ28" t="n">
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="DK28" t="n">
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="DL28" t="n">
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="DM28" t="n">
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="DN28" t="n">
         <v>0</v>
@@ -15297,69 +13554,6 @@
         <v>0</v>
       </c>
       <c r="EV28" t="n">
-        <v>0</v>
-      </c>
-      <c r="EW28" t="n">
-        <v>0</v>
-      </c>
-      <c r="EX28" t="n">
-        <v>0</v>
-      </c>
-      <c r="EY28" t="n">
-        <v>0</v>
-      </c>
-      <c r="EZ28" t="n">
-        <v>0</v>
-      </c>
-      <c r="FA28" t="n">
-        <v>0</v>
-      </c>
-      <c r="FB28" t="n">
-        <v>0</v>
-      </c>
-      <c r="FC28" t="n">
-        <v>0</v>
-      </c>
-      <c r="FD28" t="n">
-        <v>0</v>
-      </c>
-      <c r="FE28" t="n">
-        <v>0</v>
-      </c>
-      <c r="FF28" t="n">
-        <v>0</v>
-      </c>
-      <c r="FG28" t="n">
-        <v>0</v>
-      </c>
-      <c r="FH28" t="n">
-        <v>0</v>
-      </c>
-      <c r="FI28" t="n">
-        <v>0</v>
-      </c>
-      <c r="FJ28" t="n">
-        <v>0</v>
-      </c>
-      <c r="FK28" t="n">
-        <v>0</v>
-      </c>
-      <c r="FL28" t="n">
-        <v>0</v>
-      </c>
-      <c r="FM28" t="n">
-        <v>0</v>
-      </c>
-      <c r="FN28" t="n">
-        <v>0</v>
-      </c>
-      <c r="FO28" t="n">
-        <v>0</v>
-      </c>
-      <c r="FP28" t="n">
-        <v>0</v>
-      </c>
-      <c r="FQ28" t="n">
         <v>0</v>
       </c>
     </row>
@@ -15377,7 +13571,7 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0.22</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -15401,10 +13595,10 @@
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>0.16</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
@@ -15569,7 +13763,7 @@
         <v>0</v>
       </c>
       <c r="BQ29" t="n">
-        <v>0.29</v>
+        <v>0</v>
       </c>
       <c r="BR29" t="n">
         <v>0</v>
@@ -15659,19 +13853,19 @@
         <v>0</v>
       </c>
       <c r="CU29" t="n">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="CV29" t="n">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="CW29" t="n">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="CX29" t="n">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="CY29" t="n">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="CZ29" t="n">
         <v>0</v>
@@ -15716,19 +13910,19 @@
         <v>0</v>
       </c>
       <c r="DN29" t="n">
-        <v>0.41</v>
+        <v>0</v>
       </c>
       <c r="DO29" t="n">
-        <v>0.41</v>
+        <v>0</v>
       </c>
       <c r="DP29" t="n">
-        <v>0.41</v>
+        <v>0</v>
       </c>
       <c r="DQ29" t="n">
-        <v>0.41</v>
+        <v>0</v>
       </c>
       <c r="DR29" t="n">
-        <v>0.41</v>
+        <v>0</v>
       </c>
       <c r="DS29" t="n">
         <v>0</v>
@@ -15818,69 +14012,6 @@
         <v>0</v>
       </c>
       <c r="EV29" t="n">
-        <v>0</v>
-      </c>
-      <c r="EW29" t="n">
-        <v>0</v>
-      </c>
-      <c r="EX29" t="n">
-        <v>0</v>
-      </c>
-      <c r="EY29" t="n">
-        <v>0</v>
-      </c>
-      <c r="EZ29" t="n">
-        <v>0</v>
-      </c>
-      <c r="FA29" t="n">
-        <v>0</v>
-      </c>
-      <c r="FB29" t="n">
-        <v>0</v>
-      </c>
-      <c r="FC29" t="n">
-        <v>0</v>
-      </c>
-      <c r="FD29" t="n">
-        <v>0</v>
-      </c>
-      <c r="FE29" t="n">
-        <v>0</v>
-      </c>
-      <c r="FF29" t="n">
-        <v>0</v>
-      </c>
-      <c r="FG29" t="n">
-        <v>0</v>
-      </c>
-      <c r="FH29" t="n">
-        <v>0</v>
-      </c>
-      <c r="FI29" t="n">
-        <v>0</v>
-      </c>
-      <c r="FJ29" t="n">
-        <v>0</v>
-      </c>
-      <c r="FK29" t="n">
-        <v>0</v>
-      </c>
-      <c r="FL29" t="n">
-        <v>0</v>
-      </c>
-      <c r="FM29" t="n">
-        <v>0</v>
-      </c>
-      <c r="FN29" t="n">
-        <v>0</v>
-      </c>
-      <c r="FO29" t="n">
-        <v>0</v>
-      </c>
-      <c r="FP29" t="n">
-        <v>0</v>
-      </c>
-      <c r="FQ29" t="n">
         <v>0</v>
       </c>
     </row>
@@ -15922,7 +14053,7 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0.21</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -16195,13 +14326,13 @@
         <v>0</v>
       </c>
       <c r="CZ30" t="n">
-        <v>0</v>
+        <v>0.58</v>
       </c>
       <c r="DA30" t="n">
-        <v>0</v>
+        <v>0.58</v>
       </c>
       <c r="DB30" t="n">
-        <v>0</v>
+        <v>0.58</v>
       </c>
       <c r="DC30" t="n">
         <v>0</v>
@@ -16252,13 +14383,13 @@
         <v>0</v>
       </c>
       <c r="DS30" t="n">
-        <v>0.5600000000000001</v>
+        <v>0</v>
       </c>
       <c r="DT30" t="n">
-        <v>0.5600000000000001</v>
+        <v>0</v>
       </c>
       <c r="DU30" t="n">
-        <v>0.5600000000000001</v>
+        <v>0</v>
       </c>
       <c r="DV30" t="n">
         <v>0</v>
@@ -16339,69 +14470,6 @@
         <v>0</v>
       </c>
       <c r="EV30" t="n">
-        <v>0</v>
-      </c>
-      <c r="EW30" t="n">
-        <v>0</v>
-      </c>
-      <c r="EX30" t="n">
-        <v>0</v>
-      </c>
-      <c r="EY30" t="n">
-        <v>0</v>
-      </c>
-      <c r="EZ30" t="n">
-        <v>0</v>
-      </c>
-      <c r="FA30" t="n">
-        <v>0</v>
-      </c>
-      <c r="FB30" t="n">
-        <v>0</v>
-      </c>
-      <c r="FC30" t="n">
-        <v>0</v>
-      </c>
-      <c r="FD30" t="n">
-        <v>0</v>
-      </c>
-      <c r="FE30" t="n">
-        <v>0</v>
-      </c>
-      <c r="FF30" t="n">
-        <v>0</v>
-      </c>
-      <c r="FG30" t="n">
-        <v>0</v>
-      </c>
-      <c r="FH30" t="n">
-        <v>0</v>
-      </c>
-      <c r="FI30" t="n">
-        <v>0</v>
-      </c>
-      <c r="FJ30" t="n">
-        <v>0</v>
-      </c>
-      <c r="FK30" t="n">
-        <v>0</v>
-      </c>
-      <c r="FL30" t="n">
-        <v>0</v>
-      </c>
-      <c r="FM30" t="n">
-        <v>0</v>
-      </c>
-      <c r="FN30" t="n">
-        <v>0</v>
-      </c>
-      <c r="FO30" t="n">
-        <v>0</v>
-      </c>
-      <c r="FP30" t="n">
-        <v>0</v>
-      </c>
-      <c r="FQ30" t="n">
         <v>0</v>
       </c>
     </row>
@@ -16419,7 +14487,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0.35</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -16431,16 +14499,16 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="J31" t="n">
-        <v>0.16</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
         <v>0</v>
@@ -16725,10 +14793,10 @@
         <v>0</v>
       </c>
       <c r="DC31" t="n">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="DD31" t="n">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="DE31" t="n">
         <v>0</v>
@@ -16782,10 +14850,10 @@
         <v>0</v>
       </c>
       <c r="DV31" t="n">
-        <v>0.65</v>
+        <v>0</v>
       </c>
       <c r="DW31" t="n">
-        <v>0.65</v>
+        <v>0</v>
       </c>
       <c r="DX31" t="n">
         <v>0</v>
@@ -16860,69 +14928,6 @@
         <v>0</v>
       </c>
       <c r="EV31" t="n">
-        <v>0</v>
-      </c>
-      <c r="EW31" t="n">
-        <v>0</v>
-      </c>
-      <c r="EX31" t="n">
-        <v>0</v>
-      </c>
-      <c r="EY31" t="n">
-        <v>0</v>
-      </c>
-      <c r="EZ31" t="n">
-        <v>0</v>
-      </c>
-      <c r="FA31" t="n">
-        <v>0</v>
-      </c>
-      <c r="FB31" t="n">
-        <v>0</v>
-      </c>
-      <c r="FC31" t="n">
-        <v>0</v>
-      </c>
-      <c r="FD31" t="n">
-        <v>0</v>
-      </c>
-      <c r="FE31" t="n">
-        <v>0</v>
-      </c>
-      <c r="FF31" t="n">
-        <v>0</v>
-      </c>
-      <c r="FG31" t="n">
-        <v>0</v>
-      </c>
-      <c r="FH31" t="n">
-        <v>0</v>
-      </c>
-      <c r="FI31" t="n">
-        <v>0</v>
-      </c>
-      <c r="FJ31" t="n">
-        <v>0</v>
-      </c>
-      <c r="FK31" t="n">
-        <v>0</v>
-      </c>
-      <c r="FL31" t="n">
-        <v>0</v>
-      </c>
-      <c r="FM31" t="n">
-        <v>0</v>
-      </c>
-      <c r="FN31" t="n">
-        <v>0</v>
-      </c>
-      <c r="FO31" t="n">
-        <v>0</v>
-      </c>
-      <c r="FP31" t="n">
-        <v>0</v>
-      </c>
-      <c r="FQ31" t="n">
         <v>0</v>
       </c>
     </row>
@@ -17033,16 +15038,16 @@
         <v>0</v>
       </c>
       <c r="AJ32" t="n">
-        <v>0</v>
+        <v>0.49</v>
       </c>
       <c r="AK32" t="n">
-        <v>0</v>
+        <v>0.49</v>
       </c>
       <c r="AL32" t="n">
-        <v>0</v>
+        <v>0.49</v>
       </c>
       <c r="AM32" t="n">
-        <v>0</v>
+        <v>0.54</v>
       </c>
       <c r="AN32" t="n">
         <v>0</v>
@@ -17063,16 +15068,16 @@
         <v>0</v>
       </c>
       <c r="AT32" t="n">
-        <v>0.49</v>
+        <v>0</v>
       </c>
       <c r="AU32" t="n">
-        <v>0.49</v>
+        <v>0</v>
       </c>
       <c r="AV32" t="n">
-        <v>0.49</v>
+        <v>0</v>
       </c>
       <c r="AW32" t="n">
-        <v>0.54</v>
+        <v>0</v>
       </c>
       <c r="AX32" t="n">
         <v>0</v>
@@ -17381,69 +15386,6 @@
         <v>0</v>
       </c>
       <c r="EV32" t="n">
-        <v>0</v>
-      </c>
-      <c r="EW32" t="n">
-        <v>0</v>
-      </c>
-      <c r="EX32" t="n">
-        <v>0</v>
-      </c>
-      <c r="EY32" t="n">
-        <v>0</v>
-      </c>
-      <c r="EZ32" t="n">
-        <v>0</v>
-      </c>
-      <c r="FA32" t="n">
-        <v>0</v>
-      </c>
-      <c r="FB32" t="n">
-        <v>0</v>
-      </c>
-      <c r="FC32" t="n">
-        <v>0</v>
-      </c>
-      <c r="FD32" t="n">
-        <v>0</v>
-      </c>
-      <c r="FE32" t="n">
-        <v>0</v>
-      </c>
-      <c r="FF32" t="n">
-        <v>0</v>
-      </c>
-      <c r="FG32" t="n">
-        <v>0</v>
-      </c>
-      <c r="FH32" t="n">
-        <v>0</v>
-      </c>
-      <c r="FI32" t="n">
-        <v>0</v>
-      </c>
-      <c r="FJ32" t="n">
-        <v>0</v>
-      </c>
-      <c r="FK32" t="n">
-        <v>0</v>
-      </c>
-      <c r="FL32" t="n">
-        <v>0</v>
-      </c>
-      <c r="FM32" t="n">
-        <v>0</v>
-      </c>
-      <c r="FN32" t="n">
-        <v>0</v>
-      </c>
-      <c r="FO32" t="n">
-        <v>0</v>
-      </c>
-      <c r="FP32" t="n">
-        <v>0</v>
-      </c>
-      <c r="FQ32" t="n">
         <v>0</v>
       </c>
     </row>
@@ -17473,10 +15415,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="J33" t="n">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -17608,7 +15550,7 @@
         <v>0</v>
       </c>
       <c r="BB33" t="n">
-        <v>0</v>
+        <v>0.53</v>
       </c>
       <c r="BC33" t="n">
         <v>0</v>
@@ -17647,13 +15589,13 @@
         <v>0</v>
       </c>
       <c r="BO33" t="n">
-        <v>0.46</v>
+        <v>0</v>
       </c>
       <c r="BP33" t="n">
         <v>0</v>
       </c>
       <c r="BQ33" t="n">
-        <v>0.51</v>
+        <v>0</v>
       </c>
       <c r="BR33" t="n">
         <v>0</v>
@@ -17773,7 +15715,7 @@
         <v>0</v>
       </c>
       <c r="DE33" t="n">
-        <v>0</v>
+        <v>0.82</v>
       </c>
       <c r="DF33" t="n">
         <v>0</v>
@@ -17830,7 +15772,7 @@
         <v>0</v>
       </c>
       <c r="DX33" t="n">
-        <v>0.71</v>
+        <v>0</v>
       </c>
       <c r="DY33" t="n">
         <v>0</v>
@@ -17902,69 +15844,6 @@
         <v>0</v>
       </c>
       <c r="EV33" t="n">
-        <v>0</v>
-      </c>
-      <c r="EW33" t="n">
-        <v>0</v>
-      </c>
-      <c r="EX33" t="n">
-        <v>0</v>
-      </c>
-      <c r="EY33" t="n">
-        <v>0</v>
-      </c>
-      <c r="EZ33" t="n">
-        <v>0</v>
-      </c>
-      <c r="FA33" t="n">
-        <v>0</v>
-      </c>
-      <c r="FB33" t="n">
-        <v>0</v>
-      </c>
-      <c r="FC33" t="n">
-        <v>0</v>
-      </c>
-      <c r="FD33" t="n">
-        <v>0</v>
-      </c>
-      <c r="FE33" t="n">
-        <v>0</v>
-      </c>
-      <c r="FF33" t="n">
-        <v>0</v>
-      </c>
-      <c r="FG33" t="n">
-        <v>0</v>
-      </c>
-      <c r="FH33" t="n">
-        <v>0</v>
-      </c>
-      <c r="FI33" t="n">
-        <v>0</v>
-      </c>
-      <c r="FJ33" t="n">
-        <v>0</v>
-      </c>
-      <c r="FK33" t="n">
-        <v>0</v>
-      </c>
-      <c r="FL33" t="n">
-        <v>0</v>
-      </c>
-      <c r="FM33" t="n">
-        <v>0</v>
-      </c>
-      <c r="FN33" t="n">
-        <v>0</v>
-      </c>
-      <c r="FO33" t="n">
-        <v>0</v>
-      </c>
-      <c r="FP33" t="n">
-        <v>0</v>
-      </c>
-      <c r="FQ33" t="n">
         <v>0</v>
       </c>
     </row>
@@ -17994,16 +15873,16 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="J34" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
         <v>0</v>
@@ -18237,7 +16116,7 @@
         <v>0</v>
       </c>
       <c r="CL34" t="n">
-        <v>0</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="CM34" t="n">
         <v>0</v>
@@ -18249,7 +16128,7 @@
         <v>0</v>
       </c>
       <c r="CP34" t="n">
-        <v>0</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="CQ34" t="n">
         <v>0</v>
@@ -18288,7 +16167,7 @@
         <v>0</v>
       </c>
       <c r="DC34" t="n">
-        <v>0.68</v>
+        <v>0</v>
       </c>
       <c r="DD34" t="n">
         <v>0</v>
@@ -18303,7 +16182,7 @@
         <v>0</v>
       </c>
       <c r="DH34" t="n">
-        <v>0.68</v>
+        <v>0</v>
       </c>
       <c r="DI34" t="n">
         <v>0</v>
@@ -18423,69 +16302,6 @@
         <v>0</v>
       </c>
       <c r="EV34" t="n">
-        <v>0</v>
-      </c>
-      <c r="EW34" t="n">
-        <v>0</v>
-      </c>
-      <c r="EX34" t="n">
-        <v>0</v>
-      </c>
-      <c r="EY34" t="n">
-        <v>0</v>
-      </c>
-      <c r="EZ34" t="n">
-        <v>0</v>
-      </c>
-      <c r="FA34" t="n">
-        <v>0</v>
-      </c>
-      <c r="FB34" t="n">
-        <v>0</v>
-      </c>
-      <c r="FC34" t="n">
-        <v>0</v>
-      </c>
-      <c r="FD34" t="n">
-        <v>0</v>
-      </c>
-      <c r="FE34" t="n">
-        <v>0</v>
-      </c>
-      <c r="FF34" t="n">
-        <v>0</v>
-      </c>
-      <c r="FG34" t="n">
-        <v>0</v>
-      </c>
-      <c r="FH34" t="n">
-        <v>0</v>
-      </c>
-      <c r="FI34" t="n">
-        <v>0</v>
-      </c>
-      <c r="FJ34" t="n">
-        <v>0</v>
-      </c>
-      <c r="FK34" t="n">
-        <v>0</v>
-      </c>
-      <c r="FL34" t="n">
-        <v>0</v>
-      </c>
-      <c r="FM34" t="n">
-        <v>0</v>
-      </c>
-      <c r="FN34" t="n">
-        <v>0</v>
-      </c>
-      <c r="FO34" t="n">
-        <v>0</v>
-      </c>
-      <c r="FP34" t="n">
-        <v>0</v>
-      </c>
-      <c r="FQ34" t="n">
         <v>0</v>
       </c>
     </row>
@@ -18515,22 +16331,22 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>0.18</v>
       </c>
       <c r="J35" t="n">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>0</v>
@@ -18548,7 +16364,7 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0.22</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -18698,7 +16514,7 @@
         <v>0</v>
       </c>
       <c r="BR35" t="n">
-        <v>0</v>
+        <v>0.62</v>
       </c>
       <c r="BS35" t="n">
         <v>0</v>
@@ -18743,7 +16559,7 @@
         <v>0</v>
       </c>
       <c r="CG35" t="n">
-        <v>0.51</v>
+        <v>0</v>
       </c>
       <c r="CH35" t="n">
         <v>0</v>
@@ -18752,7 +16568,7 @@
         <v>0</v>
       </c>
       <c r="CJ35" t="n">
-        <v>0.51</v>
+        <v>0</v>
       </c>
       <c r="CK35" t="n">
         <v>0</v>
@@ -18818,7 +16634,7 @@
         <v>0</v>
       </c>
       <c r="DF35" t="n">
-        <v>0</v>
+        <v>0.76</v>
       </c>
       <c r="DG35" t="n">
         <v>0</v>
@@ -18875,7 +16691,7 @@
         <v>0</v>
       </c>
       <c r="DY35" t="n">
-        <v>0.62</v>
+        <v>0</v>
       </c>
       <c r="DZ35" t="n">
         <v>0</v>
@@ -18944,69 +16760,6 @@
         <v>0</v>
       </c>
       <c r="EV35" t="n">
-        <v>0</v>
-      </c>
-      <c r="EW35" t="n">
-        <v>0</v>
-      </c>
-      <c r="EX35" t="n">
-        <v>0</v>
-      </c>
-      <c r="EY35" t="n">
-        <v>0</v>
-      </c>
-      <c r="EZ35" t="n">
-        <v>0</v>
-      </c>
-      <c r="FA35" t="n">
-        <v>0</v>
-      </c>
-      <c r="FB35" t="n">
-        <v>0</v>
-      </c>
-      <c r="FC35" t="n">
-        <v>0</v>
-      </c>
-      <c r="FD35" t="n">
-        <v>0</v>
-      </c>
-      <c r="FE35" t="n">
-        <v>0</v>
-      </c>
-      <c r="FF35" t="n">
-        <v>0</v>
-      </c>
-      <c r="FG35" t="n">
-        <v>0</v>
-      </c>
-      <c r="FH35" t="n">
-        <v>0</v>
-      </c>
-      <c r="FI35" t="n">
-        <v>0</v>
-      </c>
-      <c r="FJ35" t="n">
-        <v>0</v>
-      </c>
-      <c r="FK35" t="n">
-        <v>0</v>
-      </c>
-      <c r="FL35" t="n">
-        <v>0</v>
-      </c>
-      <c r="FM35" t="n">
-        <v>0</v>
-      </c>
-      <c r="FN35" t="n">
-        <v>0</v>
-      </c>
-      <c r="FO35" t="n">
-        <v>0</v>
-      </c>
-      <c r="FP35" t="n">
-        <v>0</v>
-      </c>
-      <c r="FQ35" t="n">
         <v>0</v>
       </c>
     </row>
@@ -19045,7 +16798,7 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0.21</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -19072,7 +16825,7 @@
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>0.32</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -19090,7 +16843,7 @@
         <v>0</v>
       </c>
       <c r="AA36" t="n">
-        <v>0</v>
+        <v>0.41</v>
       </c>
       <c r="AB36" t="n">
         <v>0</v>
@@ -19114,7 +16867,7 @@
         <v>0</v>
       </c>
       <c r="AI36" t="n">
-        <v>0.38</v>
+        <v>0</v>
       </c>
       <c r="AJ36" t="n">
         <v>0</v>
@@ -19342,10 +17095,10 @@
         <v>0</v>
       </c>
       <c r="DG36" t="n">
-        <v>0</v>
+        <v>0.64</v>
       </c>
       <c r="DH36" t="n">
-        <v>0</v>
+        <v>0.64</v>
       </c>
       <c r="DI36" t="n">
         <v>0</v>
@@ -19399,10 +17152,10 @@
         <v>0</v>
       </c>
       <c r="DZ36" t="n">
-        <v>0.59</v>
+        <v>0</v>
       </c>
       <c r="EA36" t="n">
-        <v>0.59</v>
+        <v>0</v>
       </c>
       <c r="EB36" t="n">
         <v>0</v>
@@ -19465,69 +17218,6 @@
         <v>0</v>
       </c>
       <c r="EV36" t="n">
-        <v>0</v>
-      </c>
-      <c r="EW36" t="n">
-        <v>0</v>
-      </c>
-      <c r="EX36" t="n">
-        <v>0</v>
-      </c>
-      <c r="EY36" t="n">
-        <v>0</v>
-      </c>
-      <c r="EZ36" t="n">
-        <v>0</v>
-      </c>
-      <c r="FA36" t="n">
-        <v>0</v>
-      </c>
-      <c r="FB36" t="n">
-        <v>0</v>
-      </c>
-      <c r="FC36" t="n">
-        <v>0</v>
-      </c>
-      <c r="FD36" t="n">
-        <v>0</v>
-      </c>
-      <c r="FE36" t="n">
-        <v>0</v>
-      </c>
-      <c r="FF36" t="n">
-        <v>0</v>
-      </c>
-      <c r="FG36" t="n">
-        <v>0</v>
-      </c>
-      <c r="FH36" t="n">
-        <v>0</v>
-      </c>
-      <c r="FI36" t="n">
-        <v>0</v>
-      </c>
-      <c r="FJ36" t="n">
-        <v>0</v>
-      </c>
-      <c r="FK36" t="n">
-        <v>0</v>
-      </c>
-      <c r="FL36" t="n">
-        <v>0</v>
-      </c>
-      <c r="FM36" t="n">
-        <v>0</v>
-      </c>
-      <c r="FN36" t="n">
-        <v>0</v>
-      </c>
-      <c r="FO36" t="n">
-        <v>0</v>
-      </c>
-      <c r="FP36" t="n">
-        <v>0</v>
-      </c>
-      <c r="FQ36" t="n">
         <v>0</v>
       </c>
     </row>
@@ -19566,7 +17256,7 @@
         <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>0.09</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
         <v>0</v>
@@ -19869,16 +17559,16 @@
         <v>0</v>
       </c>
       <c r="DI37" t="n">
-        <v>0</v>
+        <v>0.39</v>
       </c>
       <c r="DJ37" t="n">
-        <v>0</v>
+        <v>0.48</v>
       </c>
       <c r="DK37" t="n">
-        <v>0</v>
+        <v>0.48</v>
       </c>
       <c r="DL37" t="n">
-        <v>0</v>
+        <v>0.48</v>
       </c>
       <c r="DM37" t="n">
         <v>0</v>
@@ -19926,16 +17616,16 @@
         <v>0</v>
       </c>
       <c r="EB37" t="n">
-        <v>0.39</v>
+        <v>0</v>
       </c>
       <c r="EC37" t="n">
-        <v>0.48</v>
+        <v>0</v>
       </c>
       <c r="ED37" t="n">
-        <v>0.48</v>
+        <v>0</v>
       </c>
       <c r="EE37" t="n">
-        <v>0.48</v>
+        <v>0</v>
       </c>
       <c r="EF37" t="n">
         <v>0</v>
@@ -19986,69 +17676,6 @@
         <v>0</v>
       </c>
       <c r="EV37" t="n">
-        <v>0</v>
-      </c>
-      <c r="EW37" t="n">
-        <v>0</v>
-      </c>
-      <c r="EX37" t="n">
-        <v>0</v>
-      </c>
-      <c r="EY37" t="n">
-        <v>0</v>
-      </c>
-      <c r="EZ37" t="n">
-        <v>0</v>
-      </c>
-      <c r="FA37" t="n">
-        <v>0</v>
-      </c>
-      <c r="FB37" t="n">
-        <v>0</v>
-      </c>
-      <c r="FC37" t="n">
-        <v>0</v>
-      </c>
-      <c r="FD37" t="n">
-        <v>0</v>
-      </c>
-      <c r="FE37" t="n">
-        <v>0</v>
-      </c>
-      <c r="FF37" t="n">
-        <v>0</v>
-      </c>
-      <c r="FG37" t="n">
-        <v>0</v>
-      </c>
-      <c r="FH37" t="n">
-        <v>0</v>
-      </c>
-      <c r="FI37" t="n">
-        <v>0</v>
-      </c>
-      <c r="FJ37" t="n">
-        <v>0</v>
-      </c>
-      <c r="FK37" t="n">
-        <v>0</v>
-      </c>
-      <c r="FL37" t="n">
-        <v>0</v>
-      </c>
-      <c r="FM37" t="n">
-        <v>0</v>
-      </c>
-      <c r="FN37" t="n">
-        <v>0</v>
-      </c>
-      <c r="FO37" t="n">
-        <v>0</v>
-      </c>
-      <c r="FP37" t="n">
-        <v>0</v>
-      </c>
-      <c r="FQ37" t="n">
         <v>0</v>
       </c>
     </row>
@@ -20066,10 +17693,10 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>0.29</v>
       </c>
       <c r="F38" t="n">
-        <v>0.28</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -20078,22 +17705,22 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="J38" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
@@ -20114,7 +17741,7 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0.24</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -20402,19 +18029,19 @@
         <v>0</v>
       </c>
       <c r="DM38" t="n">
-        <v>0</v>
+        <v>0.46</v>
       </c>
       <c r="DN38" t="n">
-        <v>0</v>
+        <v>0.37</v>
       </c>
       <c r="DO38" t="n">
-        <v>0</v>
+        <v>0.46</v>
       </c>
       <c r="DP38" t="n">
-        <v>0</v>
+        <v>0.46</v>
       </c>
       <c r="DQ38" t="n">
-        <v>0</v>
+        <v>0.37</v>
       </c>
       <c r="DR38" t="n">
         <v>0</v>
@@ -20459,19 +18086,19 @@
         <v>0</v>
       </c>
       <c r="EF38" t="n">
-        <v>0.44</v>
+        <v>0</v>
       </c>
       <c r="EG38" t="n">
-        <v>0.36</v>
+        <v>0</v>
       </c>
       <c r="EH38" t="n">
-        <v>0.44</v>
+        <v>0</v>
       </c>
       <c r="EI38" t="n">
-        <v>0.44</v>
+        <v>0</v>
       </c>
       <c r="EJ38" t="n">
-        <v>0.36</v>
+        <v>0</v>
       </c>
       <c r="EK38" t="n">
         <v>0</v>
@@ -20507,69 +18134,6 @@
         <v>0</v>
       </c>
       <c r="EV38" t="n">
-        <v>0</v>
-      </c>
-      <c r="EW38" t="n">
-        <v>0</v>
-      </c>
-      <c r="EX38" t="n">
-        <v>0</v>
-      </c>
-      <c r="EY38" t="n">
-        <v>0</v>
-      </c>
-      <c r="EZ38" t="n">
-        <v>0</v>
-      </c>
-      <c r="FA38" t="n">
-        <v>0</v>
-      </c>
-      <c r="FB38" t="n">
-        <v>0</v>
-      </c>
-      <c r="FC38" t="n">
-        <v>0</v>
-      </c>
-      <c r="FD38" t="n">
-        <v>0</v>
-      </c>
-      <c r="FE38" t="n">
-        <v>0</v>
-      </c>
-      <c r="FF38" t="n">
-        <v>0</v>
-      </c>
-      <c r="FG38" t="n">
-        <v>0</v>
-      </c>
-      <c r="FH38" t="n">
-        <v>0</v>
-      </c>
-      <c r="FI38" t="n">
-        <v>0</v>
-      </c>
-      <c r="FJ38" t="n">
-        <v>0</v>
-      </c>
-      <c r="FK38" t="n">
-        <v>0</v>
-      </c>
-      <c r="FL38" t="n">
-        <v>0</v>
-      </c>
-      <c r="FM38" t="n">
-        <v>0</v>
-      </c>
-      <c r="FN38" t="n">
-        <v>0</v>
-      </c>
-      <c r="FO38" t="n">
-        <v>0</v>
-      </c>
-      <c r="FP38" t="n">
-        <v>0</v>
-      </c>
-      <c r="FQ38" t="n">
         <v>0</v>
       </c>
     </row>
@@ -20608,13 +18172,13 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0.16</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -20938,19 +18502,19 @@
         <v>0</v>
       </c>
       <c r="DR39" t="n">
-        <v>0</v>
+        <v>0.46</v>
       </c>
       <c r="DS39" t="n">
-        <v>0</v>
+        <v>0.38</v>
       </c>
       <c r="DT39" t="n">
-        <v>0</v>
+        <v>0.46</v>
       </c>
       <c r="DU39" t="n">
-        <v>0</v>
+        <v>0.46</v>
       </c>
       <c r="DV39" t="n">
-        <v>0</v>
+        <v>0.46</v>
       </c>
       <c r="DW39" t="n">
         <v>0</v>
@@ -20995,19 +18559,19 @@
         <v>0</v>
       </c>
       <c r="EK39" t="n">
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="EL39" t="n">
-        <v>0.37</v>
+        <v>0</v>
       </c>
       <c r="EM39" t="n">
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="EN39" t="n">
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="EO39" t="n">
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="EP39" t="n">
         <v>0</v>
@@ -21028,69 +18592,6 @@
         <v>0</v>
       </c>
       <c r="EV39" t="n">
-        <v>0</v>
-      </c>
-      <c r="EW39" t="n">
-        <v>0</v>
-      </c>
-      <c r="EX39" t="n">
-        <v>0</v>
-      </c>
-      <c r="EY39" t="n">
-        <v>0</v>
-      </c>
-      <c r="EZ39" t="n">
-        <v>0</v>
-      </c>
-      <c r="FA39" t="n">
-        <v>0</v>
-      </c>
-      <c r="FB39" t="n">
-        <v>0</v>
-      </c>
-      <c r="FC39" t="n">
-        <v>0</v>
-      </c>
-      <c r="FD39" t="n">
-        <v>0</v>
-      </c>
-      <c r="FE39" t="n">
-        <v>0</v>
-      </c>
-      <c r="FF39" t="n">
-        <v>0</v>
-      </c>
-      <c r="FG39" t="n">
-        <v>0</v>
-      </c>
-      <c r="FH39" t="n">
-        <v>0</v>
-      </c>
-      <c r="FI39" t="n">
-        <v>0</v>
-      </c>
-      <c r="FJ39" t="n">
-        <v>0</v>
-      </c>
-      <c r="FK39" t="n">
-        <v>0</v>
-      </c>
-      <c r="FL39" t="n">
-        <v>0</v>
-      </c>
-      <c r="FM39" t="n">
-        <v>0</v>
-      </c>
-      <c r="FN39" t="n">
-        <v>0</v>
-      </c>
-      <c r="FO39" t="n">
-        <v>0</v>
-      </c>
-      <c r="FP39" t="n">
-        <v>0</v>
-      </c>
-      <c r="FQ39" t="n">
         <v>0</v>
       </c>
     </row>
@@ -21129,13 +18630,13 @@
         <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
         <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
         <v>0</v>
@@ -21156,7 +18657,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -21258,7 +18759,7 @@
         <v>0</v>
       </c>
       <c r="BC40" t="n">
-        <v>0</v>
+        <v>0.39</v>
       </c>
       <c r="BD40" t="n">
         <v>0</v>
@@ -21297,7 +18798,7 @@
         <v>0</v>
       </c>
       <c r="BP40" t="n">
-        <v>0.36</v>
+        <v>0</v>
       </c>
       <c r="BQ40" t="n">
         <v>0</v>
@@ -21447,7 +18948,7 @@
         <v>0</v>
       </c>
       <c r="DN40" t="n">
-        <v>0</v>
+        <v>0.49</v>
       </c>
       <c r="DO40" t="n">
         <v>0</v>
@@ -21456,7 +18957,7 @@
         <v>0</v>
       </c>
       <c r="DQ40" t="n">
-        <v>0</v>
+        <v>0.49</v>
       </c>
       <c r="DR40" t="n">
         <v>0</v>
@@ -21474,7 +18975,7 @@
         <v>0</v>
       </c>
       <c r="DW40" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="DX40" t="n">
         <v>0</v>
@@ -21504,7 +19005,7 @@
         <v>0</v>
       </c>
       <c r="EG40" t="n">
-        <v>0.46</v>
+        <v>0</v>
       </c>
       <c r="EH40" t="n">
         <v>0</v>
@@ -21513,7 +19014,7 @@
         <v>0</v>
       </c>
       <c r="EJ40" t="n">
-        <v>0.46</v>
+        <v>0</v>
       </c>
       <c r="EK40" t="n">
         <v>0</v>
@@ -21531,7 +19032,7 @@
         <v>0</v>
       </c>
       <c r="EP40" t="n">
-        <v>0.5600000000000001</v>
+        <v>0</v>
       </c>
       <c r="EQ40" t="n">
         <v>0</v>
@@ -21549,69 +19050,6 @@
         <v>0</v>
       </c>
       <c r="EV40" t="n">
-        <v>0</v>
-      </c>
-      <c r="EW40" t="n">
-        <v>0</v>
-      </c>
-      <c r="EX40" t="n">
-        <v>0</v>
-      </c>
-      <c r="EY40" t="n">
-        <v>0</v>
-      </c>
-      <c r="EZ40" t="n">
-        <v>0</v>
-      </c>
-      <c r="FA40" t="n">
-        <v>0</v>
-      </c>
-      <c r="FB40" t="n">
-        <v>0</v>
-      </c>
-      <c r="FC40" t="n">
-        <v>0</v>
-      </c>
-      <c r="FD40" t="n">
-        <v>0</v>
-      </c>
-      <c r="FE40" t="n">
-        <v>0</v>
-      </c>
-      <c r="FF40" t="n">
-        <v>0</v>
-      </c>
-      <c r="FG40" t="n">
-        <v>0</v>
-      </c>
-      <c r="FH40" t="n">
-        <v>0</v>
-      </c>
-      <c r="FI40" t="n">
-        <v>0</v>
-      </c>
-      <c r="FJ40" t="n">
-        <v>0</v>
-      </c>
-      <c r="FK40" t="n">
-        <v>0</v>
-      </c>
-      <c r="FL40" t="n">
-        <v>0</v>
-      </c>
-      <c r="FM40" t="n">
-        <v>0</v>
-      </c>
-      <c r="FN40" t="n">
-        <v>0</v>
-      </c>
-      <c r="FO40" t="n">
-        <v>0</v>
-      </c>
-      <c r="FP40" t="n">
-        <v>0</v>
-      </c>
-      <c r="FQ40" t="n">
         <v>0</v>
       </c>
     </row>
@@ -21656,7 +19094,7 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>0</v>
@@ -21998,22 +19436,22 @@
         <v>0</v>
       </c>
       <c r="DX41" t="n">
-        <v>0</v>
+        <v>0.41</v>
       </c>
       <c r="DY41" t="n">
-        <v>0</v>
+        <v>0.41</v>
       </c>
       <c r="DZ41" t="n">
-        <v>0</v>
+        <v>0.41</v>
       </c>
       <c r="EA41" t="n">
-        <v>0</v>
+        <v>0.41</v>
       </c>
       <c r="EB41" t="n">
-        <v>0</v>
+        <v>0.41</v>
       </c>
       <c r="EC41" t="n">
-        <v>0</v>
+        <v>0.41</v>
       </c>
       <c r="ED41" t="n">
         <v>0</v>
@@ -22055,84 +19493,21 @@
         <v>0</v>
       </c>
       <c r="EQ41" t="n">
-        <v>0.41</v>
+        <v>0</v>
       </c>
       <c r="ER41" t="n">
-        <v>0.41</v>
+        <v>0</v>
       </c>
       <c r="ES41" t="n">
-        <v>0.41</v>
+        <v>0</v>
       </c>
       <c r="ET41" t="n">
-        <v>0.41</v>
+        <v>0</v>
       </c>
       <c r="EU41" t="n">
-        <v>0.41</v>
+        <v>0</v>
       </c>
       <c r="EV41" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="EW41" t="n">
-        <v>0</v>
-      </c>
-      <c r="EX41" t="n">
-        <v>0</v>
-      </c>
-      <c r="EY41" t="n">
-        <v>0</v>
-      </c>
-      <c r="EZ41" t="n">
-        <v>0</v>
-      </c>
-      <c r="FA41" t="n">
-        <v>0</v>
-      </c>
-      <c r="FB41" t="n">
-        <v>0</v>
-      </c>
-      <c r="FC41" t="n">
-        <v>0</v>
-      </c>
-      <c r="FD41" t="n">
-        <v>0</v>
-      </c>
-      <c r="FE41" t="n">
-        <v>0</v>
-      </c>
-      <c r="FF41" t="n">
-        <v>0</v>
-      </c>
-      <c r="FG41" t="n">
-        <v>0</v>
-      </c>
-      <c r="FH41" t="n">
-        <v>0</v>
-      </c>
-      <c r="FI41" t="n">
-        <v>0</v>
-      </c>
-      <c r="FJ41" t="n">
-        <v>0</v>
-      </c>
-      <c r="FK41" t="n">
-        <v>0</v>
-      </c>
-      <c r="FL41" t="n">
-        <v>0</v>
-      </c>
-      <c r="FM41" t="n">
-        <v>0</v>
-      </c>
-      <c r="FN41" t="n">
-        <v>0</v>
-      </c>
-      <c r="FO41" t="n">
-        <v>0</v>
-      </c>
-      <c r="FP41" t="n">
-        <v>0</v>
-      </c>
-      <c r="FQ41" t="n">
         <v>0</v>
       </c>
     </row>
@@ -22171,13 +19546,13 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0.09</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -22537,16 +19912,16 @@
         <v>0</v>
       </c>
       <c r="ED42" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="EE42" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="EF42" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="EG42" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="EH42" t="n">
         <v>0</v>
@@ -22591,69 +19966,6 @@
         <v>0</v>
       </c>
       <c r="EV42" t="n">
-        <v>0</v>
-      </c>
-      <c r="EW42" t="n">
-        <v>0.49</v>
-      </c>
-      <c r="EX42" t="n">
-        <v>0.49</v>
-      </c>
-      <c r="EY42" t="n">
-        <v>0.49</v>
-      </c>
-      <c r="EZ42" t="n">
-        <v>0.49</v>
-      </c>
-      <c r="FA42" t="n">
-        <v>0</v>
-      </c>
-      <c r="FB42" t="n">
-        <v>0</v>
-      </c>
-      <c r="FC42" t="n">
-        <v>0</v>
-      </c>
-      <c r="FD42" t="n">
-        <v>0</v>
-      </c>
-      <c r="FE42" t="n">
-        <v>0</v>
-      </c>
-      <c r="FF42" t="n">
-        <v>0</v>
-      </c>
-      <c r="FG42" t="n">
-        <v>0</v>
-      </c>
-      <c r="FH42" t="n">
-        <v>0</v>
-      </c>
-      <c r="FI42" t="n">
-        <v>0</v>
-      </c>
-      <c r="FJ42" t="n">
-        <v>0</v>
-      </c>
-      <c r="FK42" t="n">
-        <v>0</v>
-      </c>
-      <c r="FL42" t="n">
-        <v>0</v>
-      </c>
-      <c r="FM42" t="n">
-        <v>0</v>
-      </c>
-      <c r="FN42" t="n">
-        <v>0</v>
-      </c>
-      <c r="FO42" t="n">
-        <v>0</v>
-      </c>
-      <c r="FP42" t="n">
-        <v>0</v>
-      </c>
-      <c r="FQ42" t="n">
         <v>0</v>
       </c>
     </row>
@@ -22695,10 +20007,10 @@
         <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>0.24</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
         <v>0</v>
@@ -23025,7 +20337,7 @@
         <v>0</v>
       </c>
       <c r="DS43" t="n">
-        <v>0</v>
+        <v>0.38</v>
       </c>
       <c r="DT43" t="n">
         <v>0</v>
@@ -23070,19 +20382,19 @@
         <v>0</v>
       </c>
       <c r="EH43" t="n">
-        <v>0</v>
+        <v>0.46</v>
       </c>
       <c r="EI43" t="n">
-        <v>0</v>
+        <v>0.46</v>
       </c>
       <c r="EJ43" t="n">
-        <v>0</v>
+        <v>0.46</v>
       </c>
       <c r="EK43" t="n">
-        <v>0</v>
+        <v>0.46</v>
       </c>
       <c r="EL43" t="n">
-        <v>0.36</v>
+        <v>0</v>
       </c>
       <c r="EM43" t="n">
         <v>0</v>
@@ -23112,69 +20424,6 @@
         <v>0</v>
       </c>
       <c r="EV43" t="n">
-        <v>0</v>
-      </c>
-      <c r="EW43" t="n">
-        <v>0</v>
-      </c>
-      <c r="EX43" t="n">
-        <v>0</v>
-      </c>
-      <c r="EY43" t="n">
-        <v>0</v>
-      </c>
-      <c r="EZ43" t="n">
-        <v>0</v>
-      </c>
-      <c r="FA43" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="FB43" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="FC43" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="FD43" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="FE43" t="n">
-        <v>0</v>
-      </c>
-      <c r="FF43" t="n">
-        <v>0</v>
-      </c>
-      <c r="FG43" t="n">
-        <v>0</v>
-      </c>
-      <c r="FH43" t="n">
-        <v>0</v>
-      </c>
-      <c r="FI43" t="n">
-        <v>0</v>
-      </c>
-      <c r="FJ43" t="n">
-        <v>0</v>
-      </c>
-      <c r="FK43" t="n">
-        <v>0</v>
-      </c>
-      <c r="FL43" t="n">
-        <v>0</v>
-      </c>
-      <c r="FM43" t="n">
-        <v>0</v>
-      </c>
-      <c r="FN43" t="n">
-        <v>0</v>
-      </c>
-      <c r="FO43" t="n">
-        <v>0</v>
-      </c>
-      <c r="FP43" t="n">
-        <v>0</v>
-      </c>
-      <c r="FQ43" t="n">
         <v>0</v>
       </c>
     </row>
@@ -23204,10 +20453,10 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>0.18</v>
       </c>
       <c r="J44" t="n">
-        <v>0.14</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -23216,7 +20465,7 @@
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>0.22</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
@@ -23603,10 +20852,10 @@
         <v>0</v>
       </c>
       <c r="EL44" t="n">
-        <v>0</v>
+        <v>0.76</v>
       </c>
       <c r="EM44" t="n">
-        <v>0</v>
+        <v>0.62</v>
       </c>
       <c r="EN44" t="n">
         <v>0</v>
@@ -23633,69 +20882,6 @@
         <v>0</v>
       </c>
       <c r="EV44" t="n">
-        <v>0</v>
-      </c>
-      <c r="EW44" t="n">
-        <v>0</v>
-      </c>
-      <c r="EX44" t="n">
-        <v>0</v>
-      </c>
-      <c r="EY44" t="n">
-        <v>0</v>
-      </c>
-      <c r="EZ44" t="n">
-        <v>0</v>
-      </c>
-      <c r="FA44" t="n">
-        <v>0</v>
-      </c>
-      <c r="FB44" t="n">
-        <v>0</v>
-      </c>
-      <c r="FC44" t="n">
-        <v>0</v>
-      </c>
-      <c r="FD44" t="n">
-        <v>0</v>
-      </c>
-      <c r="FE44" t="n">
-        <v>0.59</v>
-      </c>
-      <c r="FF44" t="n">
-        <v>0.59</v>
-      </c>
-      <c r="FG44" t="n">
-        <v>0.48</v>
-      </c>
-      <c r="FH44" t="n">
-        <v>0</v>
-      </c>
-      <c r="FI44" t="n">
-        <v>0</v>
-      </c>
-      <c r="FJ44" t="n">
-        <v>0</v>
-      </c>
-      <c r="FK44" t="n">
-        <v>0</v>
-      </c>
-      <c r="FL44" t="n">
-        <v>0</v>
-      </c>
-      <c r="FM44" t="n">
-        <v>0</v>
-      </c>
-      <c r="FN44" t="n">
-        <v>0</v>
-      </c>
-      <c r="FO44" t="n">
-        <v>0</v>
-      </c>
-      <c r="FP44" t="n">
-        <v>0</v>
-      </c>
-      <c r="FQ44" t="n">
         <v>0</v>
       </c>
     </row>
@@ -23734,13 +20920,13 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>0.24</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>0.34</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
@@ -23863,7 +21049,7 @@
         <v>0</v>
       </c>
       <c r="BC45" t="n">
-        <v>0</v>
+        <v>0.44</v>
       </c>
       <c r="BD45" t="n">
         <v>0</v>
@@ -23902,7 +21088,7 @@
         <v>0</v>
       </c>
       <c r="BP45" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="BQ45" t="n">
         <v>0</v>
@@ -24127,10 +21313,10 @@
         <v>0</v>
       </c>
       <c r="EM45" t="n">
-        <v>0</v>
+        <v>0.57</v>
       </c>
       <c r="EN45" t="n">
-        <v>0</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="EO45" t="n">
         <v>0</v>
@@ -24154,69 +21340,6 @@
         <v>0</v>
       </c>
       <c r="EV45" t="n">
-        <v>0</v>
-      </c>
-      <c r="EW45" t="n">
-        <v>0</v>
-      </c>
-      <c r="EX45" t="n">
-        <v>0</v>
-      </c>
-      <c r="EY45" t="n">
-        <v>0</v>
-      </c>
-      <c r="EZ45" t="n">
-        <v>0</v>
-      </c>
-      <c r="FA45" t="n">
-        <v>0</v>
-      </c>
-      <c r="FB45" t="n">
-        <v>0</v>
-      </c>
-      <c r="FC45" t="n">
-        <v>0</v>
-      </c>
-      <c r="FD45" t="n">
-        <v>0</v>
-      </c>
-      <c r="FE45" t="n">
-        <v>0</v>
-      </c>
-      <c r="FF45" t="n">
-        <v>0</v>
-      </c>
-      <c r="FG45" t="n">
-        <v>0.51</v>
-      </c>
-      <c r="FH45" t="n">
-        <v>0.63</v>
-      </c>
-      <c r="FI45" t="n">
-        <v>0</v>
-      </c>
-      <c r="FJ45" t="n">
-        <v>0</v>
-      </c>
-      <c r="FK45" t="n">
-        <v>0</v>
-      </c>
-      <c r="FL45" t="n">
-        <v>0</v>
-      </c>
-      <c r="FM45" t="n">
-        <v>0</v>
-      </c>
-      <c r="FN45" t="n">
-        <v>0</v>
-      </c>
-      <c r="FO45" t="n">
-        <v>0</v>
-      </c>
-      <c r="FP45" t="n">
-        <v>0</v>
-      </c>
-      <c r="FQ45" t="n">
         <v>0</v>
       </c>
     </row>
@@ -24654,13 +21777,13 @@
         <v>0</v>
       </c>
       <c r="EO46" t="n">
-        <v>0</v>
+        <v>0.58</v>
       </c>
       <c r="EP46" t="n">
-        <v>0</v>
+        <v>0.58</v>
       </c>
       <c r="EQ46" t="n">
-        <v>0</v>
+        <v>0.58</v>
       </c>
       <c r="ER46" t="n">
         <v>0</v>
@@ -24675,69 +21798,6 @@
         <v>0</v>
       </c>
       <c r="EV46" t="n">
-        <v>0</v>
-      </c>
-      <c r="EW46" t="n">
-        <v>0</v>
-      </c>
-      <c r="EX46" t="n">
-        <v>0</v>
-      </c>
-      <c r="EY46" t="n">
-        <v>0</v>
-      </c>
-      <c r="EZ46" t="n">
-        <v>0</v>
-      </c>
-      <c r="FA46" t="n">
-        <v>0</v>
-      </c>
-      <c r="FB46" t="n">
-        <v>0</v>
-      </c>
-      <c r="FC46" t="n">
-        <v>0</v>
-      </c>
-      <c r="FD46" t="n">
-        <v>0</v>
-      </c>
-      <c r="FE46" t="n">
-        <v>0</v>
-      </c>
-      <c r="FF46" t="n">
-        <v>0</v>
-      </c>
-      <c r="FG46" t="n">
-        <v>0</v>
-      </c>
-      <c r="FH46" t="n">
-        <v>0</v>
-      </c>
-      <c r="FI46" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="FJ46" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="FK46" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="FL46" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="FM46" t="n">
-        <v>0</v>
-      </c>
-      <c r="FN46" t="n">
-        <v>0</v>
-      </c>
-      <c r="FO46" t="n">
-        <v>0</v>
-      </c>
-      <c r="FP46" t="n">
-        <v>0</v>
-      </c>
-      <c r="FQ46" t="n">
         <v>0</v>
       </c>
     </row>
@@ -24767,22 +21827,22 @@
         <v>0</v>
       </c>
       <c r="I47" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="J47" t="n">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="K47" t="n">
         <v>0</v>
       </c>
       <c r="L47" t="n">
-        <v>0.26</v>
+        <v>0</v>
       </c>
       <c r="M47" t="n">
-        <v>0.27</v>
+        <v>0</v>
       </c>
       <c r="N47" t="n">
-        <v>0.19</v>
+        <v>0</v>
       </c>
       <c r="O47" t="n">
         <v>0</v>
@@ -24800,7 +21860,7 @@
         <v>0</v>
       </c>
       <c r="T47" t="n">
-        <v>0.26</v>
+        <v>0</v>
       </c>
       <c r="U47" t="n">
         <v>0</v>
@@ -24902,7 +21962,7 @@
         <v>0</v>
       </c>
       <c r="BB47" t="n">
-        <v>0</v>
+        <v>0.53</v>
       </c>
       <c r="BC47" t="n">
         <v>0</v>
@@ -24941,7 +22001,7 @@
         <v>0</v>
       </c>
       <c r="BO47" t="n">
-        <v>0.46</v>
+        <v>0</v>
       </c>
       <c r="BP47" t="n">
         <v>0</v>
@@ -25184,7 +22244,7 @@
         <v>0</v>
       </c>
       <c r="ER47" t="n">
-        <v>0</v>
+        <v>0.82</v>
       </c>
       <c r="ES47" t="n">
         <v>0</v>
@@ -25196,69 +22256,6 @@
         <v>0</v>
       </c>
       <c r="EV47" t="n">
-        <v>0</v>
-      </c>
-      <c r="EW47" t="n">
-        <v>0</v>
-      </c>
-      <c r="EX47" t="n">
-        <v>0</v>
-      </c>
-      <c r="EY47" t="n">
-        <v>0</v>
-      </c>
-      <c r="EZ47" t="n">
-        <v>0</v>
-      </c>
-      <c r="FA47" t="n">
-        <v>0</v>
-      </c>
-      <c r="FB47" t="n">
-        <v>0</v>
-      </c>
-      <c r="FC47" t="n">
-        <v>0</v>
-      </c>
-      <c r="FD47" t="n">
-        <v>0</v>
-      </c>
-      <c r="FE47" t="n">
-        <v>0</v>
-      </c>
-      <c r="FF47" t="n">
-        <v>0</v>
-      </c>
-      <c r="FG47" t="n">
-        <v>0</v>
-      </c>
-      <c r="FH47" t="n">
-        <v>0</v>
-      </c>
-      <c r="FI47" t="n">
-        <v>0</v>
-      </c>
-      <c r="FJ47" t="n">
-        <v>0</v>
-      </c>
-      <c r="FK47" t="n">
-        <v>0</v>
-      </c>
-      <c r="FL47" t="n">
-        <v>0</v>
-      </c>
-      <c r="FM47" t="n">
-        <v>0.72</v>
-      </c>
-      <c r="FN47" t="n">
-        <v>0</v>
-      </c>
-      <c r="FO47" t="n">
-        <v>0</v>
-      </c>
-      <c r="FP47" t="n">
-        <v>0</v>
-      </c>
-      <c r="FQ47" t="n">
         <v>0</v>
       </c>
     </row>
@@ -25372,10 +22369,10 @@
         <v>0</v>
       </c>
       <c r="AK48" t="n">
-        <v>0</v>
+        <v>0.71</v>
       </c>
       <c r="AL48" t="n">
-        <v>0</v>
+        <v>0.71</v>
       </c>
       <c r="AM48" t="n">
         <v>0</v>
@@ -25402,10 +22399,10 @@
         <v>0</v>
       </c>
       <c r="AU48" t="n">
-        <v>0.71</v>
+        <v>0</v>
       </c>
       <c r="AV48" t="n">
-        <v>0.71</v>
+        <v>0</v>
       </c>
       <c r="AW48" t="n">
         <v>0</v>
@@ -25717,69 +22714,6 @@
         <v>0</v>
       </c>
       <c r="EV48" t="n">
-        <v>0</v>
-      </c>
-      <c r="EW48" t="n">
-        <v>0</v>
-      </c>
-      <c r="EX48" t="n">
-        <v>0</v>
-      </c>
-      <c r="EY48" t="n">
-        <v>0</v>
-      </c>
-      <c r="EZ48" t="n">
-        <v>0</v>
-      </c>
-      <c r="FA48" t="n">
-        <v>0</v>
-      </c>
-      <c r="FB48" t="n">
-        <v>0</v>
-      </c>
-      <c r="FC48" t="n">
-        <v>0</v>
-      </c>
-      <c r="FD48" t="n">
-        <v>0</v>
-      </c>
-      <c r="FE48" t="n">
-        <v>0</v>
-      </c>
-      <c r="FF48" t="n">
-        <v>0</v>
-      </c>
-      <c r="FG48" t="n">
-        <v>0</v>
-      </c>
-      <c r="FH48" t="n">
-        <v>0</v>
-      </c>
-      <c r="FI48" t="n">
-        <v>0</v>
-      </c>
-      <c r="FJ48" t="n">
-        <v>0</v>
-      </c>
-      <c r="FK48" t="n">
-        <v>0</v>
-      </c>
-      <c r="FL48" t="n">
-        <v>0</v>
-      </c>
-      <c r="FM48" t="n">
-        <v>0</v>
-      </c>
-      <c r="FN48" t="n">
-        <v>0</v>
-      </c>
-      <c r="FO48" t="n">
-        <v>0</v>
-      </c>
-      <c r="FP48" t="n">
-        <v>0</v>
-      </c>
-      <c r="FQ48" t="n">
         <v>0</v>
       </c>
     </row>
@@ -25818,13 +22752,13 @@
         <v>0</v>
       </c>
       <c r="L49" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="M49" t="n">
-        <v>0.23</v>
+        <v>0</v>
       </c>
       <c r="N49" t="n">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="O49" t="n">
         <v>0</v>
@@ -25839,7 +22773,7 @@
         <v>0</v>
       </c>
       <c r="S49" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="T49" t="n">
         <v>0</v>
@@ -25860,7 +22794,7 @@
         <v>0</v>
       </c>
       <c r="Z49" t="n">
-        <v>0.19</v>
+        <v>0</v>
       </c>
       <c r="AA49" t="n">
         <v>0</v>
@@ -25881,7 +22815,7 @@
         <v>0</v>
       </c>
       <c r="AG49" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AH49" t="n">
         <v>0</v>
@@ -25890,7 +22824,7 @@
         <v>0</v>
       </c>
       <c r="AJ49" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="AK49" t="n">
         <v>0</v>
@@ -25911,218 +22845,218 @@
         <v>0</v>
       </c>
       <c r="AQ49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ49" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA49" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB49" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC49" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD49" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE49" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF49" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG49" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH49" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI49" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ49" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK49" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL49" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM49" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN49" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO49" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP49" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ49" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR49" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS49" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT49" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU49" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV49" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW49" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX49" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY49" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ49" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA49" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB49" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC49" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD49" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE49" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF49" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG49" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH49" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI49" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ49" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK49" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL49" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM49" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN49" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO49" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP49" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ49" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR49" t="n">
+        <v>0</v>
+      </c>
+      <c r="CS49" t="n">
+        <v>0</v>
+      </c>
+      <c r="CT49" t="n">
+        <v>0</v>
+      </c>
+      <c r="CU49" t="n">
+        <v>0</v>
+      </c>
+      <c r="CV49" t="n">
+        <v>0</v>
+      </c>
+      <c r="CW49" t="n">
+        <v>0</v>
+      </c>
+      <c r="CX49" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY49" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ49" t="n">
+        <v>0</v>
+      </c>
+      <c r="DA49" t="n">
+        <v>0</v>
+      </c>
+      <c r="DB49" t="n">
+        <v>0</v>
+      </c>
+      <c r="DC49" t="n">
+        <v>0</v>
+      </c>
+      <c r="DD49" t="n">
+        <v>0</v>
+      </c>
+      <c r="DE49" t="n">
+        <v>0</v>
+      </c>
+      <c r="DF49" t="n">
+        <v>0</v>
+      </c>
+      <c r="DG49" t="n">
+        <v>0</v>
+      </c>
+      <c r="DH49" t="n">
+        <v>0</v>
+      </c>
+      <c r="DI49" t="n">
         <v>0.25</v>
       </c>
-      <c r="AR49" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS49" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT49" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="AU49" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV49" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW49" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX49" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY49" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ49" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA49" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB49" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC49" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD49" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE49" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF49" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG49" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH49" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI49" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ49" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK49" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL49" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM49" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN49" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO49" t="n">
-        <v>0</v>
-      </c>
-      <c r="BP49" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ49" t="n">
-        <v>0</v>
-      </c>
-      <c r="BR49" t="n">
-        <v>0</v>
-      </c>
-      <c r="BS49" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT49" t="n">
-        <v>0</v>
-      </c>
-      <c r="BU49" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV49" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW49" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX49" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY49" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ49" t="n">
-        <v>0</v>
-      </c>
-      <c r="CA49" t="n">
-        <v>0</v>
-      </c>
-      <c r="CB49" t="n">
-        <v>0</v>
-      </c>
-      <c r="CC49" t="n">
-        <v>0</v>
-      </c>
-      <c r="CD49" t="n">
-        <v>0</v>
-      </c>
-      <c r="CE49" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF49" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG49" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH49" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI49" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ49" t="n">
-        <v>0</v>
-      </c>
-      <c r="CK49" t="n">
-        <v>0</v>
-      </c>
-      <c r="CL49" t="n">
-        <v>0</v>
-      </c>
-      <c r="CM49" t="n">
-        <v>0</v>
-      </c>
-      <c r="CN49" t="n">
-        <v>0</v>
-      </c>
-      <c r="CO49" t="n">
-        <v>0</v>
-      </c>
-      <c r="CP49" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ49" t="n">
-        <v>0</v>
-      </c>
-      <c r="CR49" t="n">
-        <v>0</v>
-      </c>
-      <c r="CS49" t="n">
-        <v>0</v>
-      </c>
-      <c r="CT49" t="n">
-        <v>0</v>
-      </c>
-      <c r="CU49" t="n">
-        <v>0</v>
-      </c>
-      <c r="CV49" t="n">
-        <v>0</v>
-      </c>
-      <c r="CW49" t="n">
-        <v>0</v>
-      </c>
-      <c r="CX49" t="n">
-        <v>0</v>
-      </c>
-      <c r="CY49" t="n">
-        <v>0</v>
-      </c>
-      <c r="CZ49" t="n">
-        <v>0</v>
-      </c>
-      <c r="DA49" t="n">
-        <v>0</v>
-      </c>
-      <c r="DB49" t="n">
-        <v>0</v>
-      </c>
-      <c r="DC49" t="n">
-        <v>0</v>
-      </c>
-      <c r="DD49" t="n">
-        <v>0</v>
-      </c>
-      <c r="DE49" t="n">
-        <v>0</v>
-      </c>
-      <c r="DF49" t="n">
-        <v>0</v>
-      </c>
-      <c r="DG49" t="n">
-        <v>0</v>
-      </c>
-      <c r="DH49" t="n">
-        <v>0</v>
-      </c>
-      <c r="DI49" t="n">
-        <v>0</v>
-      </c>
       <c r="DJ49" t="n">
         <v>0</v>
       </c>
@@ -26178,7 +23112,7 @@
         <v>0</v>
       </c>
       <c r="EB49" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="EC49" t="n">
         <v>0</v>
@@ -26229,79 +23163,16 @@
         <v>0</v>
       </c>
       <c r="ES49" t="n">
-        <v>0</v>
+        <v>0.62</v>
       </c>
       <c r="ET49" t="n">
-        <v>0</v>
+        <v>0.31</v>
       </c>
       <c r="EU49" t="n">
-        <v>0</v>
+        <v>0.31</v>
       </c>
       <c r="EV49" t="n">
-        <v>0</v>
-      </c>
-      <c r="EW49" t="n">
-        <v>0</v>
-      </c>
-      <c r="EX49" t="n">
-        <v>0</v>
-      </c>
-      <c r="EY49" t="n">
-        <v>0</v>
-      </c>
-      <c r="EZ49" t="n">
-        <v>0</v>
-      </c>
-      <c r="FA49" t="n">
-        <v>0</v>
-      </c>
-      <c r="FB49" t="n">
-        <v>0</v>
-      </c>
-      <c r="FC49" t="n">
-        <v>0</v>
-      </c>
-      <c r="FD49" t="n">
-        <v>0</v>
-      </c>
-      <c r="FE49" t="n">
-        <v>0</v>
-      </c>
-      <c r="FF49" t="n">
-        <v>0</v>
-      </c>
-      <c r="FG49" t="n">
-        <v>0</v>
-      </c>
-      <c r="FH49" t="n">
-        <v>0</v>
-      </c>
-      <c r="FI49" t="n">
-        <v>0</v>
-      </c>
-      <c r="FJ49" t="n">
-        <v>0</v>
-      </c>
-      <c r="FK49" t="n">
-        <v>0</v>
-      </c>
-      <c r="FL49" t="n">
-        <v>0</v>
-      </c>
-      <c r="FM49" t="n">
-        <v>0</v>
-      </c>
-      <c r="FN49" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="FO49" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="FP49" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="FQ49" t="n">
-        <v>0.3</v>
+        <v>0.31</v>
       </c>
     </row>
   </sheetData>
